--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_16_22.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_16_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-331302.2885483405</v>
+        <v>-331967.0696297592</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>632041.4518058546</v>
+        <v>632041.4518058547</v>
       </c>
     </row>
     <row r="9">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>98.93990648501784</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1379,13 +1379,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>87.34175268954159</v>
+        <v>15.29414839764802</v>
       </c>
       <c r="G11" t="n">
-        <v>98.93990648501779</v>
+        <v>98.93990648501784</v>
       </c>
       <c r="H11" t="n">
-        <v>98.93990648501779</v>
+        <v>98.93990648501784</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>26.89230219312421</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>22.05838072575474</v>
+        <v>22.05838072575477</v>
       </c>
       <c r="U11" t="n">
-        <v>49.79374050860086</v>
+        <v>49.79374050860088</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1452,16 +1452,16 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>86.93738546136579</v>
       </c>
       <c r="E12" t="n">
-        <v>98.93990648501779</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>98.93990648501784</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1500,22 +1500,22 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>68.93582914938419</v>
+        <v>14.58962378130652</v>
       </c>
       <c r="U12" t="n">
-        <v>36.8717970345844</v>
+        <v>36.87179703458443</v>
       </c>
       <c r="V12" t="n">
-        <v>40.29306373012037</v>
+        <v>40.29306373012039</v>
       </c>
       <c r="W12" t="n">
-        <v>98.93990648501779</v>
+        <v>66.34872639172974</v>
       </c>
       <c r="X12" t="n">
-        <v>16.95705725418873</v>
+        <v>16.95705725418875</v>
       </c>
       <c r="Y12" t="n">
-        <v>23.02842894874374</v>
+        <v>23.02842894874377</v>
       </c>
     </row>
     <row r="13">
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>2.836158859791235</v>
+        <v>2.836158859791263</v>
       </c>
       <c r="S13" t="n">
-        <v>34.98996300440345</v>
+        <v>34.98996300440348</v>
       </c>
       <c r="T13" t="n">
-        <v>23.38309022542049</v>
+        <v>23.38309022542052</v>
       </c>
       <c r="U13" t="n">
-        <v>88.3004111317141</v>
+        <v>88.30041113171413</v>
       </c>
       <c r="V13" t="n">
-        <v>44.75315799916802</v>
+        <v>44.75315799916805</v>
       </c>
       <c r="W13" t="n">
-        <v>89.95484990405345</v>
+        <v>89.95484990405348</v>
       </c>
       <c r="X13" t="n">
-        <v>21.56359822296065</v>
+        <v>21.56359822296068</v>
       </c>
       <c r="Y13" t="n">
-        <v>16.78541562888654</v>
+        <v>16.78541562888657</v>
       </c>
     </row>
     <row r="14">
@@ -1610,22 +1610,22 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>47.14266318391478</v>
+        <v>98.93990648501784</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>87.14626963200365</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>98.93990648501784</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>98.93990648501784</v>
       </c>
       <c r="I14" t="n">
-        <v>40.19908950562697</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,16 +1655,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>26.89230219312412</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>22.05838072575466</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>49.79374050860076</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>98.93990648501779</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1673,7 +1673,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>98.93990648501779</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1683,10 +1683,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>54.34620536807812</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>98.93990648501779</v>
+        <v>54.34620536807771</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -1731,28 +1731,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>98.93990648501784</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>14.5896237813064</v>
+        <v>14.58962378130652</v>
       </c>
       <c r="U15" t="n">
-        <v>36.87179703458431</v>
+        <v>36.87179703458443</v>
       </c>
       <c r="V15" t="n">
-        <v>40.29306373012028</v>
+        <v>40.29306373012039</v>
       </c>
       <c r="W15" t="n">
-        <v>98.93990648501779</v>
+        <v>98.93990648501784</v>
       </c>
       <c r="X15" t="n">
-        <v>16.95705725418864</v>
+        <v>16.95705725418875</v>
       </c>
       <c r="Y15" t="n">
-        <v>23.02842894874365</v>
+        <v>23.02842894874377</v>
       </c>
     </row>
     <row r="16">
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>2.83615885979115</v>
+        <v>2.836158859791263</v>
       </c>
       <c r="S16" t="n">
-        <v>34.98996300440336</v>
+        <v>34.98996300440348</v>
       </c>
       <c r="T16" t="n">
-        <v>23.38309022542041</v>
+        <v>23.38309022542052</v>
       </c>
       <c r="U16" t="n">
-        <v>88.30041113171401</v>
+        <v>88.30041113171413</v>
       </c>
       <c r="V16" t="n">
-        <v>44.75315799916794</v>
+        <v>44.75315799916805</v>
       </c>
       <c r="W16" t="n">
-        <v>89.95484990405336</v>
+        <v>89.95484990405348</v>
       </c>
       <c r="X16" t="n">
-        <v>21.56359822296056</v>
+        <v>21.56359822296068</v>
       </c>
       <c r="Y16" t="n">
-        <v>16.78541562888645</v>
+        <v>16.78541562888657</v>
       </c>
     </row>
     <row r="17">
@@ -1856,10 +1856,10 @@
         <v>73.35237277478018</v>
       </c>
       <c r="G17" t="n">
-        <v>88.97949861282757</v>
+        <v>88.97949861282795</v>
       </c>
       <c r="H17" t="n">
-        <v>17.05370075428357</v>
+        <v>17.05370075428355</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1926,16 +1926,16 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>98.93990648501779</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>98.93990648501779</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>87.14626963200359</v>
+        <v>87.14626963200369</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1968,10 +1968,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>98.93990648501784</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>98.93990648501784</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -1983,7 +1983,7 @@
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>98.93990648501779</v>
+        <v>98.93990648501784</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>44.24036351260014</v>
+        <v>44.24036351260003</v>
       </c>
       <c r="C20" t="n">
-        <v>20.35862051594563</v>
+        <v>20.35862051594552</v>
       </c>
       <c r="D20" t="n">
-        <v>7.925282776994095</v>
+        <v>7.925282776993981</v>
       </c>
       <c r="E20" t="n">
-        <v>41.63203519640297</v>
+        <v>41.63203519640285</v>
       </c>
       <c r="F20" t="n">
-        <v>73.35237277478029</v>
+        <v>73.35237277478018</v>
       </c>
       <c r="G20" t="n">
-        <v>88.97949861282768</v>
+        <v>88.97949861282754</v>
       </c>
       <c r="H20" t="n">
-        <v>17.05370075428368</v>
+        <v>17.05370075428357</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2141,13 +2141,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>8.049586960533702</v>
+        <v>8.049586960533588</v>
       </c>
       <c r="X20" t="n">
-        <v>29.93583742947294</v>
+        <v>29.93583742947283</v>
       </c>
       <c r="Y20" t="n">
-        <v>52.4386905532167</v>
+        <v>52.43869055321659</v>
       </c>
     </row>
     <row r="21">
@@ -2160,13 +2160,13 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>87.14626963200359</v>
+        <v>98.93990648501784</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>98.93990648501784</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -2175,7 +2175,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>98.93990648501779</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2208,25 +2208,25 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>98.93990648501779</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>98.93990648501779</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>87.14626963200367</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>98.93990648501784</v>
       </c>
     </row>
     <row r="22">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>44.24036351260014</v>
+        <v>44.24036351260003</v>
       </c>
       <c r="C23" t="n">
-        <v>20.35862051594563</v>
+        <v>20.35862051594552</v>
       </c>
       <c r="D23" t="n">
-        <v>7.925282776994095</v>
+        <v>7.925282776993981</v>
       </c>
       <c r="E23" t="n">
-        <v>41.63203519640297</v>
+        <v>41.63203519640285</v>
       </c>
       <c r="F23" t="n">
-        <v>73.35237277478029</v>
+        <v>73.35237277478018</v>
       </c>
       <c r="G23" t="n">
-        <v>88.97949861282768</v>
+        <v>88.97949861282757</v>
       </c>
       <c r="H23" t="n">
-        <v>17.05370075428368</v>
+        <v>17.05370075428357</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2378,13 +2378,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>8.049586960533702</v>
+        <v>8.049586960533588</v>
       </c>
       <c r="X23" t="n">
-        <v>29.93583742947294</v>
+        <v>29.93583742947283</v>
       </c>
       <c r="Y23" t="n">
-        <v>52.4386905532167</v>
+        <v>52.43869055321659</v>
       </c>
     </row>
     <row r="24">
@@ -2397,13 +2397,13 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>87.14626963200379</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>98.93990648501801</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -2412,7 +2412,7 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>98.93990648501786</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2442,22 +2442,22 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>98.93990648501786</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>87.14626963200367</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>98.93990648501801</v>
+        <v>98.93990648501786</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>98.93990648501801</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -2552,28 +2552,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>161.2265260322197</v>
+        <v>161.2265260322198</v>
       </c>
       <c r="C26" t="n">
-        <v>137.3447830355652</v>
+        <v>137.3447830355653</v>
       </c>
       <c r="D26" t="n">
-        <v>124.9114452966137</v>
+        <v>124.9114452966138</v>
       </c>
       <c r="E26" t="n">
         <v>158.6181977160226</v>
       </c>
       <c r="F26" t="n">
-        <v>190.3385352943999</v>
+        <v>190.3385352944</v>
       </c>
       <c r="G26" t="n">
-        <v>205.9656611324473</v>
+        <v>205.9656611324474</v>
       </c>
       <c r="H26" t="n">
-        <v>134.0398632739033</v>
+        <v>134.0398632739034</v>
       </c>
       <c r="I26" t="n">
-        <v>27.69423234529535</v>
+        <v>27.69423234529543</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>14.3874450327925</v>
+        <v>14.38744503279258</v>
       </c>
       <c r="T26" t="n">
-        <v>9.553523565423031</v>
+        <v>9.55352356542312</v>
       </c>
       <c r="U26" t="n">
-        <v>37.28888334826914</v>
+        <v>37.28888334826922</v>
       </c>
       <c r="V26" t="n">
-        <v>108.0190692635384</v>
+        <v>108.0190692635385</v>
       </c>
       <c r="W26" t="n">
-        <v>125.0357494801533</v>
+        <v>125.0357494801534</v>
       </c>
       <c r="X26" t="n">
-        <v>146.9219999490925</v>
+        <v>146.9219999490926</v>
       </c>
       <c r="Y26" t="n">
-        <v>169.4248530728363</v>
+        <v>169.4248530728364</v>
       </c>
     </row>
     <row r="27">
@@ -2631,22 +2631,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>23.66338777433327</v>
       </c>
       <c r="F27" t="n">
         <v>158.8234391199283</v>
       </c>
       <c r="G27" t="n">
-        <v>86.30984979572422</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2655,7 +2655,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>51.87880489469029</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2685,22 +2685,22 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>2.084766620974777</v>
+        <v>214.9454809665884</v>
       </c>
       <c r="U27" t="n">
-        <v>24.36693987425268</v>
+        <v>24.36693987425277</v>
       </c>
       <c r="V27" t="n">
-        <v>240.6489209154022</v>
+        <v>27.78820656978874</v>
       </c>
       <c r="W27" t="n">
-        <v>53.843869231398</v>
+        <v>53.84386923139809</v>
       </c>
       <c r="X27" t="n">
-        <v>4.452200093857016</v>
+        <v>4.452200093857101</v>
       </c>
       <c r="Y27" t="n">
-        <v>10.52357178841203</v>
+        <v>10.52357178841211</v>
       </c>
     </row>
     <row r="28">
@@ -2761,25 +2761,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>22.48510584407174</v>
+        <v>22.48510584407182</v>
       </c>
       <c r="T28" t="n">
-        <v>10.87823306508878</v>
+        <v>10.87823306508887</v>
       </c>
       <c r="U28" t="n">
-        <v>75.79555397138239</v>
+        <v>75.79555397138247</v>
       </c>
       <c r="V28" t="n">
-        <v>32.24830083883631</v>
+        <v>32.2483008388364</v>
       </c>
       <c r="W28" t="n">
-        <v>77.44999274372174</v>
+        <v>77.44999274372182</v>
       </c>
       <c r="X28" t="n">
-        <v>9.05874106262894</v>
+        <v>9.058741062629025</v>
       </c>
       <c r="Y28" t="n">
-        <v>4.28055846855483</v>
+        <v>4.280558468554915</v>
       </c>
     </row>
     <row r="29">
@@ -2804,10 +2804,10 @@
         <v>190.3385352944</v>
       </c>
       <c r="G29" t="n">
-        <v>205.9656611324473</v>
+        <v>205.9656611324474</v>
       </c>
       <c r="H29" t="n">
-        <v>134.0398632739033</v>
+        <v>134.0398632739034</v>
       </c>
       <c r="I29" t="n">
         <v>27.69423234529543</v>
@@ -2843,7 +2843,7 @@
         <v>14.38744503279258</v>
       </c>
       <c r="T29" t="n">
-        <v>9.553523565423117</v>
+        <v>9.55352356542312</v>
       </c>
       <c r="U29" t="n">
         <v>37.28888334826922</v>
@@ -2874,25 +2874,25 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>60.28477670381698</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>52.85687172570172</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>148.7382922638873</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>125.6745619188949</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>51.87880489469029</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2919,7 +2919,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>191.4735447740309</v>
       </c>
       <c r="T30" t="n">
         <v>2.084766620974862</v>
@@ -2928,7 +2928,7 @@
         <v>237.2276542198663</v>
       </c>
       <c r="V30" t="n">
-        <v>240.6489209154022</v>
+        <v>27.78820656978874</v>
       </c>
       <c r="W30" t="n">
         <v>53.84386923139809</v>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>161.2265260322198</v>
+        <v>161.2265260322199</v>
       </c>
       <c r="C32" t="n">
         <v>137.3447830355653</v>
@@ -3035,7 +3035,7 @@
         <v>124.9114452966138</v>
       </c>
       <c r="E32" t="n">
-        <v>158.6181977160226</v>
+        <v>158.6181977160227</v>
       </c>
       <c r="F32" t="n">
         <v>190.3385352944</v>
@@ -3047,7 +3047,7 @@
         <v>134.0398632739034</v>
       </c>
       <c r="I32" t="n">
-        <v>27.69423234529543</v>
+        <v>27.69423234529546</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>14.38744503279258</v>
+        <v>14.38744503279261</v>
       </c>
       <c r="T32" t="n">
-        <v>9.55352356542312</v>
+        <v>9.553523565423149</v>
       </c>
       <c r="U32" t="n">
-        <v>37.28888334826922</v>
+        <v>37.28888334826925</v>
       </c>
       <c r="V32" t="n">
         <v>108.0190692635385</v>
@@ -3092,7 +3092,7 @@
         <v>125.0357494801534</v>
       </c>
       <c r="X32" t="n">
-        <v>146.9219999490926</v>
+        <v>146.9219999490927</v>
       </c>
       <c r="Y32" t="n">
         <v>169.4248530728364</v>
@@ -3117,7 +3117,7 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -3156,25 +3156,25 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>191.4735447740309</v>
       </c>
       <c r="T33" t="n">
-        <v>2.084766620974862</v>
+        <v>2.084766620974891</v>
       </c>
       <c r="U33" t="n">
-        <v>237.2276542198663</v>
+        <v>24.3669398742528</v>
       </c>
       <c r="V33" t="n">
-        <v>103.3303992388123</v>
+        <v>70.68029358470969</v>
       </c>
       <c r="W33" t="n">
-        <v>53.84386923139809</v>
+        <v>53.84386923139812</v>
       </c>
       <c r="X33" t="n">
-        <v>4.452200093857101</v>
+        <v>4.45220009385713</v>
       </c>
       <c r="Y33" t="n">
-        <v>10.52357178841211</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="34">
@@ -3235,25 +3235,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>22.48510584407182</v>
+        <v>22.48510584407185</v>
       </c>
       <c r="T34" t="n">
-        <v>10.87823306508887</v>
+        <v>10.8782330650889</v>
       </c>
       <c r="U34" t="n">
-        <v>75.79555397138247</v>
+        <v>75.7955539713825</v>
       </c>
       <c r="V34" t="n">
-        <v>32.2483008388364</v>
+        <v>32.24830083883643</v>
       </c>
       <c r="W34" t="n">
-        <v>77.44999274372182</v>
+        <v>77.44999274372185</v>
       </c>
       <c r="X34" t="n">
-        <v>9.058741062629025</v>
+        <v>9.058741062629053</v>
       </c>
       <c r="Y34" t="n">
-        <v>4.280558468554915</v>
+        <v>4.280558468554943</v>
       </c>
     </row>
     <row r="35">
@@ -3269,19 +3269,19 @@
         <v>109.6505506902699</v>
       </c>
       <c r="D35" t="n">
-        <v>97.21721295131837</v>
+        <v>97.21721295131834</v>
       </c>
       <c r="E35" t="n">
         <v>130.9239653707272</v>
       </c>
       <c r="F35" t="n">
-        <v>162.6443029491046</v>
+        <v>162.6443029491045</v>
       </c>
       <c r="G35" t="n">
-        <v>178.271428787152</v>
+        <v>178.2714287871519</v>
       </c>
       <c r="H35" t="n">
-        <v>106.345630928608</v>
+        <v>106.3456309286079</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3320,13 +3320,13 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>9.594651002973819</v>
+        <v>9.594651002973791</v>
       </c>
       <c r="V35" t="n">
-        <v>80.32483691824311</v>
+        <v>80.32483691824308</v>
       </c>
       <c r="W35" t="n">
-        <v>97.34151713485798</v>
+        <v>97.34151713485795</v>
       </c>
       <c r="X35" t="n">
         <v>119.2277676037972</v>
@@ -3345,10 +3345,10 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D36" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -3357,16 +3357,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>111.7761852965486</v>
+        <v>148.7382922638873</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>125.6745619188949</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>51.87880489469029</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3387,7 +3387,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>6.063707710285872</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -3399,19 +3399,19 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>237.2276542198663</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0.09397422449333703</v>
+        <v>211.7808966393881</v>
       </c>
       <c r="W36" t="n">
-        <v>26.14963688610268</v>
+        <v>26.14963688610266</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3478,13 +3478,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>48.10132162608707</v>
+        <v>48.10132162608704</v>
       </c>
       <c r="V37" t="n">
-        <v>4.554068493540996</v>
+        <v>4.554068493540967</v>
       </c>
       <c r="W37" t="n">
-        <v>49.75576039842642</v>
+        <v>49.75576039842639</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3506,19 +3506,19 @@
         <v>109.6505506902699</v>
       </c>
       <c r="D38" t="n">
-        <v>97.21721295131834</v>
+        <v>97.21721295131837</v>
       </c>
       <c r="E38" t="n">
         <v>130.9239653707272</v>
       </c>
       <c r="F38" t="n">
-        <v>162.6443029491045</v>
+        <v>162.6443029491046</v>
       </c>
       <c r="G38" t="n">
-        <v>178.2714287871519</v>
+        <v>178.271428787152</v>
       </c>
       <c r="H38" t="n">
-        <v>106.3456309286079</v>
+        <v>106.345630928608</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3557,13 +3557,13 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>9.594651002973791</v>
+        <v>9.594651002973819</v>
       </c>
       <c r="V38" t="n">
-        <v>80.32483691824308</v>
+        <v>80.32483691824311</v>
       </c>
       <c r="W38" t="n">
-        <v>97.34151713485795</v>
+        <v>97.34151713485798</v>
       </c>
       <c r="X38" t="n">
         <v>119.2277676037972</v>
@@ -3579,25 +3579,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>2.662248872120652</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G39" t="n">
-        <v>148.7382922638873</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>125.6745619188949</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3633,22 +3633,22 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>63.0841777071006</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0.09397422449330861</v>
+        <v>0.09397422449333703</v>
       </c>
       <c r="W39" t="n">
-        <v>26.14963688610266</v>
+        <v>26.14963688610268</v>
       </c>
       <c r="X39" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="40">
@@ -3715,13 +3715,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>48.10132162608704</v>
+        <v>48.10132162608707</v>
       </c>
       <c r="V40" t="n">
-        <v>4.554068493540967</v>
+        <v>4.554068493540996</v>
       </c>
       <c r="W40" t="n">
-        <v>49.75576039842639</v>
+        <v>49.75576039842642</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3822,7 +3822,7 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -3834,13 +3834,13 @@
         <v>148.7382922638873</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>125.6745619188949</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>107.1460820356304</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>51.87880489469029</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3864,10 +3864,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>106.6491548398851</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>191.4735447740309</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -3876,10 +3876,10 @@
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>183.1888609201376</v>
+        <v>0.09397422449339388</v>
       </c>
       <c r="W42" t="n">
-        <v>266.7045835770116</v>
+        <v>26.14963688610274</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -4031,7 +4031,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>9.594651002973876</v>
+        <v>9.594651002973881</v>
       </c>
       <c r="V44" t="n">
         <v>80.32483691824316</v>
@@ -4053,25 +4053,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>19.29860125907779</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G45" t="n">
-        <v>148.7382922638873</v>
+        <v>36.16000202980407</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>125.6745619188949</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4107,7 +4107,7 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>214.9454809665884</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -4122,7 +4122,7 @@
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="46">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>296.0177840941319</v>
+        <v>223.2424262235325</v>
       </c>
       <c r="C11" t="n">
-        <v>296.0177840941319</v>
+        <v>223.2424262235325</v>
       </c>
       <c r="D11" t="n">
-        <v>296.0177840941319</v>
+        <v>223.2424262235325</v>
       </c>
       <c r="E11" t="n">
-        <v>296.0177840941319</v>
+        <v>223.2424262235325</v>
       </c>
       <c r="F11" t="n">
-        <v>207.7937914784333</v>
+        <v>207.7937914784335</v>
       </c>
       <c r="G11" t="n">
         <v>107.8544919986174</v>
       </c>
       <c r="H11" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801428</v>
       </c>
       <c r="I11" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801428</v>
       </c>
       <c r="J11" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801428</v>
       </c>
       <c r="K11" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801428</v>
       </c>
       <c r="L11" t="n">
-        <v>95.14277008191912</v>
+        <v>56.47914923314347</v>
       </c>
       <c r="M11" t="n">
-        <v>178.0554888838194</v>
+        <v>139.3918680350437</v>
       </c>
       <c r="N11" t="n">
-        <v>255.4673861415187</v>
+        <v>216.803765292743</v>
       </c>
       <c r="O11" t="n">
-        <v>291.6558868311981</v>
+        <v>314.7542727129107</v>
       </c>
       <c r="P11" t="n">
-        <v>291.6558868311981</v>
+        <v>395.7596259400714</v>
       </c>
       <c r="Q11" t="n">
-        <v>389.6063942513658</v>
+        <v>395.7596259400714</v>
       </c>
       <c r="R11" t="n">
-        <v>395.7596259400711</v>
+        <v>395.7596259400714</v>
       </c>
       <c r="S11" t="n">
-        <v>368.5956843308547</v>
+        <v>395.7596259400714</v>
       </c>
       <c r="T11" t="n">
-        <v>346.3144916785772</v>
+        <v>373.4784332877938</v>
       </c>
       <c r="U11" t="n">
-        <v>296.0177840941319</v>
+        <v>323.1817257033485</v>
       </c>
       <c r="V11" t="n">
-        <v>296.0177840941319</v>
+        <v>323.1817257033485</v>
       </c>
       <c r="W11" t="n">
-        <v>296.0177840941319</v>
+        <v>323.1817257033485</v>
       </c>
       <c r="X11" t="n">
-        <v>296.0177840941319</v>
+        <v>323.1817257033485</v>
       </c>
       <c r="Y11" t="n">
-        <v>296.0177840941319</v>
+        <v>323.1817257033485</v>
       </c>
     </row>
     <row r="12">
@@ -5094,31 +5094,31 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>107.8544919986174</v>
+        <v>195.6700328686839</v>
       </c>
       <c r="C12" t="n">
-        <v>107.8544919986174</v>
+        <v>195.6700328686839</v>
       </c>
       <c r="D12" t="n">
         <v>107.8544919986174</v>
       </c>
       <c r="E12" t="n">
-        <v>7.915192518801423</v>
+        <v>107.8544919986174</v>
       </c>
       <c r="F12" t="n">
-        <v>7.915192518801423</v>
+        <v>107.8544919986174</v>
       </c>
       <c r="G12" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801428</v>
       </c>
       <c r="H12" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801428</v>
       </c>
       <c r="I12" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801428</v>
       </c>
       <c r="J12" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801428</v>
       </c>
       <c r="K12" t="n">
         <v>46.88760930735559</v>
@@ -5127,43 +5127,43 @@
         <v>144.8381167275232</v>
       </c>
       <c r="M12" t="n">
-        <v>199.858611099736</v>
+        <v>242.7886241476909</v>
       </c>
       <c r="N12" t="n">
-        <v>297.8091185199036</v>
+        <v>242.7886241476909</v>
       </c>
       <c r="O12" t="n">
-        <v>395.7596259400711</v>
+        <v>340.7391315678586</v>
       </c>
       <c r="P12" t="n">
-        <v>395.7596259400711</v>
+        <v>395.7596259400714</v>
       </c>
       <c r="Q12" t="n">
-        <v>395.7596259400711</v>
+        <v>395.7596259400714</v>
       </c>
       <c r="R12" t="n">
-        <v>395.7596259400711</v>
+        <v>395.7596259400714</v>
       </c>
       <c r="S12" t="n">
-        <v>395.7596259400711</v>
+        <v>395.7596259400714</v>
       </c>
       <c r="T12" t="n">
-        <v>326.1274752841275</v>
+        <v>381.02263222158</v>
       </c>
       <c r="U12" t="n">
-        <v>288.8832358552544</v>
+        <v>343.7783927927068</v>
       </c>
       <c r="V12" t="n">
-        <v>248.1831714813954</v>
+        <v>303.0783284188478</v>
       </c>
       <c r="W12" t="n">
-        <v>148.2438720015795</v>
+        <v>236.059412871646</v>
       </c>
       <c r="X12" t="n">
-        <v>131.1155313407828</v>
+        <v>218.9310722108493</v>
       </c>
       <c r="Y12" t="n">
-        <v>107.8544919986174</v>
+        <v>195.6700328686839</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801428</v>
       </c>
       <c r="C13" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801428</v>
       </c>
       <c r="D13" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801428</v>
       </c>
       <c r="E13" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801428</v>
       </c>
       <c r="F13" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801428</v>
       </c>
       <c r="G13" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801428</v>
       </c>
       <c r="H13" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801428</v>
       </c>
       <c r="I13" t="n">
-        <v>39.88856417385213</v>
+        <v>7.915192518801428</v>
       </c>
       <c r="J13" t="n">
-        <v>39.88856417385213</v>
+        <v>7.915192518801428</v>
       </c>
       <c r="K13" t="n">
-        <v>39.88856417385213</v>
+        <v>39.88856417385207</v>
       </c>
       <c r="L13" t="n">
+        <v>39.88856417385207</v>
+      </c>
+      <c r="M13" t="n">
+        <v>39.88856417385207</v>
+      </c>
+      <c r="N13" t="n">
         <v>137.8390715940197</v>
       </c>
-      <c r="M13" t="n">
-        <v>137.8390715940197</v>
-      </c>
-      <c r="N13" t="n">
+      <c r="O13" t="n">
         <v>235.7895790141874</v>
       </c>
-      <c r="O13" t="n">
-        <v>333.740086434355</v>
-      </c>
       <c r="P13" t="n">
-        <v>333.740086434355</v>
+        <v>333.7400864343551</v>
       </c>
       <c r="Q13" t="n">
-        <v>333.740086434355</v>
+        <v>333.7400864343551</v>
       </c>
       <c r="R13" t="n">
-        <v>330.8752795052729</v>
+        <v>330.875279505273</v>
       </c>
       <c r="S13" t="n">
-        <v>295.531882531128</v>
+        <v>295.5318825311281</v>
       </c>
       <c r="T13" t="n">
-        <v>271.9125994751477</v>
+        <v>271.9125994751478</v>
       </c>
       <c r="U13" t="n">
-        <v>182.7202649986688</v>
+        <v>182.7202649986689</v>
       </c>
       <c r="V13" t="n">
-        <v>137.515054898499</v>
+        <v>137.5150548984991</v>
       </c>
       <c r="W13" t="n">
-        <v>46.6515701469299</v>
+        <v>46.65157014692996</v>
       </c>
       <c r="X13" t="n">
-        <v>24.870157800505</v>
+        <v>24.87015780050503</v>
       </c>
       <c r="Y13" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801428</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>96.13918513450017</v>
+        <v>395.7596259400714</v>
       </c>
       <c r="C14" t="n">
-        <v>96.13918513450017</v>
+        <v>395.7596259400714</v>
       </c>
       <c r="D14" t="n">
-        <v>48.52033343357615</v>
+        <v>295.8203264602554</v>
       </c>
       <c r="E14" t="n">
-        <v>48.52033343357615</v>
+        <v>207.7937914784335</v>
       </c>
       <c r="F14" t="n">
-        <v>48.52033343357615</v>
+        <v>107.8544919986174</v>
       </c>
       <c r="G14" t="n">
-        <v>48.52033343357615</v>
+        <v>107.8544919986174</v>
       </c>
       <c r="H14" t="n">
-        <v>48.52033343357615</v>
+        <v>7.915192518801428</v>
       </c>
       <c r="I14" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801428</v>
       </c>
       <c r="J14" t="n">
-        <v>105.865699938969</v>
+        <v>7.915192518801428</v>
       </c>
       <c r="K14" t="n">
-        <v>130.1439423139818</v>
+        <v>7.915192518801428</v>
       </c>
       <c r="L14" t="n">
-        <v>178.7078990283238</v>
+        <v>56.47914923314347</v>
       </c>
       <c r="M14" t="n">
-        <v>261.6206178302241</v>
+        <v>139.3918680350437</v>
       </c>
       <c r="N14" t="n">
-        <v>359.5711252503917</v>
+        <v>216.803765292743</v>
       </c>
       <c r="O14" t="n">
-        <v>395.7596259400711</v>
+        <v>314.7542727129107</v>
       </c>
       <c r="P14" t="n">
-        <v>395.7596259400711</v>
+        <v>314.7542727129107</v>
       </c>
       <c r="Q14" t="n">
-        <v>395.7596259400711</v>
+        <v>395.7596259400714</v>
       </c>
       <c r="R14" t="n">
-        <v>395.7596259400711</v>
+        <v>395.7596259400714</v>
       </c>
       <c r="S14" t="n">
-        <v>368.5956843308549</v>
+        <v>395.7596259400714</v>
       </c>
       <c r="T14" t="n">
-        <v>346.3144916785773</v>
+        <v>395.7596259400714</v>
       </c>
       <c r="U14" t="n">
-        <v>296.0177840941321</v>
+        <v>395.7596259400714</v>
       </c>
       <c r="V14" t="n">
-        <v>196.0784846143161</v>
+        <v>395.7596259400714</v>
       </c>
       <c r="W14" t="n">
-        <v>196.0784846143161</v>
+        <v>395.7596259400714</v>
       </c>
       <c r="X14" t="n">
-        <v>196.0784846143161</v>
+        <v>395.7596259400714</v>
       </c>
       <c r="Y14" t="n">
-        <v>96.13918513450017</v>
+        <v>395.7596259400714</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>107.8544919986174</v>
+        <v>62.81034945625366</v>
       </c>
       <c r="C15" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801428</v>
       </c>
       <c r="D15" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801428</v>
       </c>
       <c r="E15" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801428</v>
       </c>
       <c r="F15" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801428</v>
       </c>
       <c r="G15" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801428</v>
       </c>
       <c r="H15" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801428</v>
       </c>
       <c r="I15" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801428</v>
       </c>
       <c r="J15" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801428</v>
       </c>
       <c r="K15" t="n">
-        <v>46.88760930735559</v>
+        <v>7.915192518801428</v>
       </c>
       <c r="L15" t="n">
-        <v>46.88760930735559</v>
+        <v>105.8656999389691</v>
       </c>
       <c r="M15" t="n">
-        <v>115.0401959957314</v>
+        <v>203.8162073591368</v>
       </c>
       <c r="N15" t="n">
-        <v>212.990703415899</v>
+        <v>301.7667147793044</v>
       </c>
       <c r="O15" t="n">
-        <v>310.9412108360666</v>
+        <v>395.7596259400714</v>
       </c>
       <c r="P15" t="n">
-        <v>395.7596259400711</v>
+        <v>395.7596259400714</v>
       </c>
       <c r="Q15" t="n">
-        <v>395.7596259400711</v>
+        <v>395.7596259400714</v>
       </c>
       <c r="R15" t="n">
-        <v>395.7596259400711</v>
+        <v>295.8203264602554</v>
       </c>
       <c r="S15" t="n">
-        <v>395.7596259400711</v>
+        <v>295.8203264602554</v>
       </c>
       <c r="T15" t="n">
-        <v>381.0226322215798</v>
+        <v>281.083332741764</v>
       </c>
       <c r="U15" t="n">
-        <v>343.7783927927068</v>
+        <v>243.8390933128908</v>
       </c>
       <c r="V15" t="n">
-        <v>303.0783284188479</v>
+        <v>203.1390289390318</v>
       </c>
       <c r="W15" t="n">
-        <v>203.1390289390319</v>
+        <v>103.1997294592158</v>
       </c>
       <c r="X15" t="n">
-        <v>186.0106882782353</v>
+        <v>86.07138879841908</v>
       </c>
       <c r="Y15" t="n">
-        <v>162.74964893607</v>
+        <v>62.81034945625366</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>30.42673967391216</v>
+        <v>30.42673967391205</v>
       </c>
       <c r="C16" t="n">
-        <v>30.42673967391216</v>
+        <v>30.42673967391205</v>
       </c>
       <c r="D16" t="n">
-        <v>30.42673967391216</v>
+        <v>30.42673967391205</v>
       </c>
       <c r="E16" t="n">
-        <v>30.42673967391216</v>
+        <v>30.42673967391205</v>
       </c>
       <c r="F16" t="n">
-        <v>33.64912163781538</v>
+        <v>30.42673967391205</v>
       </c>
       <c r="G16" t="n">
-        <v>64.99289209935228</v>
+        <v>30.42673967391205</v>
       </c>
       <c r="H16" t="n">
-        <v>64.99289209935228</v>
+        <v>30.42673967391205</v>
       </c>
       <c r="I16" t="n">
-        <v>64.99289209935228</v>
+        <v>30.42673967391205</v>
       </c>
       <c r="J16" t="n">
-        <v>64.99289209935228</v>
+        <v>30.42673967391205</v>
       </c>
       <c r="K16" t="n">
-        <v>162.9433995195199</v>
+        <v>30.42673967391205</v>
       </c>
       <c r="L16" t="n">
-        <v>260.8939069396875</v>
+        <v>30.42673967391205</v>
       </c>
       <c r="M16" t="n">
-        <v>260.8939069396875</v>
+        <v>128.3772470940797</v>
       </c>
       <c r="N16" t="n">
-        <v>260.8939069396875</v>
+        <v>128.3772470940797</v>
       </c>
       <c r="O16" t="n">
-        <v>260.8939069396875</v>
+        <v>226.3277545142474</v>
       </c>
       <c r="P16" t="n">
-        <v>260.8939069396875</v>
+        <v>260.8939069396885</v>
       </c>
       <c r="Q16" t="n">
-        <v>333.7400864343542</v>
+        <v>333.7400864343551</v>
       </c>
       <c r="R16" t="n">
-        <v>330.8752795052722</v>
+        <v>330.875279505273</v>
       </c>
       <c r="S16" t="n">
-        <v>295.5318825311274</v>
+        <v>295.5318825311281</v>
       </c>
       <c r="T16" t="n">
-        <v>271.9125994751472</v>
+        <v>271.9125994751478</v>
       </c>
       <c r="U16" t="n">
-        <v>182.7202649986684</v>
+        <v>182.7202649986689</v>
       </c>
       <c r="V16" t="n">
-        <v>137.5150548984988</v>
+        <v>137.5150548984991</v>
       </c>
       <c r="W16" t="n">
-        <v>46.65157014692973</v>
+        <v>46.65157014692996</v>
       </c>
       <c r="X16" t="n">
-        <v>24.87015780050491</v>
+        <v>24.87015780050503</v>
       </c>
       <c r="Y16" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801428</v>
       </c>
     </row>
     <row r="17">
@@ -5489,34 +5489,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>259.7349002271187</v>
+        <v>259.7349002271191</v>
       </c>
       <c r="C17" t="n">
-        <v>239.170637079699</v>
+        <v>239.1706370796992</v>
       </c>
       <c r="D17" t="n">
-        <v>231.1653009413212</v>
+        <v>231.1653009413214</v>
       </c>
       <c r="E17" t="n">
-        <v>189.1127401368735</v>
+        <v>189.1127401368741</v>
       </c>
       <c r="F17" t="n">
-        <v>115.0194343037622</v>
+        <v>115.0194343037626</v>
       </c>
       <c r="G17" t="n">
-        <v>25.14115287666361</v>
+        <v>25.1411528766636</v>
       </c>
       <c r="H17" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801428</v>
       </c>
       <c r="I17" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801428</v>
       </c>
       <c r="J17" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801428</v>
       </c>
       <c r="K17" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801428</v>
       </c>
       <c r="L17" t="n">
         <v>56.47914923314347</v>
@@ -5528,37 +5528,37 @@
         <v>216.803765292743</v>
       </c>
       <c r="O17" t="n">
-        <v>314.7542727129106</v>
+        <v>252.9922659824225</v>
       </c>
       <c r="P17" t="n">
-        <v>314.7542727129106</v>
+        <v>252.9922659824225</v>
       </c>
       <c r="Q17" t="n">
-        <v>314.7542727129106</v>
+        <v>252.9922659824225</v>
       </c>
       <c r="R17" t="n">
-        <v>314.7542727129106</v>
+        <v>252.9922659824225</v>
       </c>
       <c r="S17" t="n">
-        <v>314.7542727129106</v>
+        <v>316.8593195604343</v>
       </c>
       <c r="T17" t="n">
-        <v>314.7542727129106</v>
+        <v>316.8593195604343</v>
       </c>
       <c r="U17" t="n">
-        <v>386.8822036165507</v>
+        <v>395.7596259400714</v>
       </c>
       <c r="V17" t="n">
-        <v>395.7596259400711</v>
+        <v>395.7596259400714</v>
       </c>
       <c r="W17" t="n">
-        <v>387.6287300203404</v>
+        <v>387.6287300203405</v>
       </c>
       <c r="X17" t="n">
-        <v>357.3905103946103</v>
+        <v>357.3905103946106</v>
       </c>
       <c r="Y17" t="n">
-        <v>304.4221360984318</v>
+        <v>304.4221360984322</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>295.8203264602552</v>
+        <v>95.94172750062336</v>
       </c>
       <c r="C18" t="n">
-        <v>295.8203264602552</v>
+        <v>95.94172750062336</v>
       </c>
       <c r="D18" t="n">
-        <v>195.8810269804392</v>
+        <v>95.94172750062336</v>
       </c>
       <c r="E18" t="n">
-        <v>195.8810269804392</v>
+        <v>95.94172750062336</v>
       </c>
       <c r="F18" t="n">
-        <v>95.94172750062324</v>
+        <v>95.94172750062336</v>
       </c>
       <c r="G18" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801428</v>
       </c>
       <c r="H18" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801428</v>
       </c>
       <c r="I18" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801428</v>
       </c>
       <c r="J18" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801428</v>
       </c>
       <c r="K18" t="n">
-        <v>17.08968857556377</v>
+        <v>46.88760930735559</v>
       </c>
       <c r="L18" t="n">
-        <v>115.0401959957314</v>
+        <v>144.8381167275232</v>
       </c>
       <c r="M18" t="n">
-        <v>212.990703415899</v>
+        <v>212.9907034158992</v>
       </c>
       <c r="N18" t="n">
-        <v>310.9412108360666</v>
+        <v>310.9412108360668</v>
       </c>
       <c r="O18" t="n">
-        <v>310.9412108360666</v>
+        <v>310.9412108360668</v>
       </c>
       <c r="P18" t="n">
-        <v>395.7596259400711</v>
+        <v>395.7596259400714</v>
       </c>
       <c r="Q18" t="n">
-        <v>395.7596259400711</v>
+        <v>395.7596259400714</v>
       </c>
       <c r="R18" t="n">
-        <v>395.7596259400711</v>
+        <v>295.8203264602554</v>
       </c>
       <c r="S18" t="n">
-        <v>395.7596259400711</v>
+        <v>195.8810269804394</v>
       </c>
       <c r="T18" t="n">
-        <v>395.7596259400711</v>
+        <v>195.8810269804394</v>
       </c>
       <c r="U18" t="n">
-        <v>395.7596259400711</v>
+        <v>195.8810269804394</v>
       </c>
       <c r="V18" t="n">
-        <v>395.7596259400711</v>
+        <v>195.8810269804394</v>
       </c>
       <c r="W18" t="n">
-        <v>295.8203264602552</v>
+        <v>95.94172750062336</v>
       </c>
       <c r="X18" t="n">
-        <v>295.8203264602552</v>
+        <v>95.94172750062336</v>
       </c>
       <c r="Y18" t="n">
-        <v>295.8203264602552</v>
+        <v>95.94172750062336</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801428</v>
       </c>
       <c r="C19" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801428</v>
       </c>
       <c r="D19" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801428</v>
       </c>
       <c r="E19" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801428</v>
       </c>
       <c r="F19" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801428</v>
       </c>
       <c r="G19" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801428</v>
       </c>
       <c r="H19" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801428</v>
       </c>
       <c r="I19" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801428</v>
       </c>
       <c r="J19" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801428</v>
       </c>
       <c r="K19" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801428</v>
       </c>
       <c r="L19" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801428</v>
       </c>
       <c r="M19" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801428</v>
       </c>
       <c r="N19" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801428</v>
       </c>
       <c r="O19" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801428</v>
       </c>
       <c r="P19" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801428</v>
       </c>
       <c r="Q19" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801428</v>
       </c>
       <c r="R19" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801428</v>
       </c>
       <c r="S19" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801428</v>
       </c>
       <c r="T19" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801428</v>
       </c>
       <c r="U19" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801428</v>
       </c>
       <c r="V19" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801428</v>
       </c>
       <c r="W19" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801428</v>
       </c>
       <c r="X19" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801428</v>
       </c>
       <c r="Y19" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801428</v>
       </c>
     </row>
     <row r="20">
@@ -5726,34 +5726,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>259.7349002271185</v>
+        <v>259.7349002271189</v>
       </c>
       <c r="C20" t="n">
-        <v>239.1706370796987</v>
+        <v>239.1706370796992</v>
       </c>
       <c r="D20" t="n">
-        <v>231.1653009413209</v>
+        <v>231.1653009413215</v>
       </c>
       <c r="E20" t="n">
-        <v>189.1127401368735</v>
+        <v>189.1127401368742</v>
       </c>
       <c r="F20" t="n">
-        <v>115.0194343037621</v>
+        <v>115.0194343037629</v>
       </c>
       <c r="G20" t="n">
-        <v>25.14115287666373</v>
+        <v>25.14115287666362</v>
       </c>
       <c r="H20" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801428</v>
       </c>
       <c r="I20" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801428</v>
       </c>
       <c r="J20" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801428</v>
       </c>
       <c r="K20" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801428</v>
       </c>
       <c r="L20" t="n">
         <v>56.47914923314347</v>
@@ -5780,22 +5780,22 @@
         <v>350.9427734025901</v>
       </c>
       <c r="T20" t="n">
-        <v>386.8822036165508</v>
+        <v>386.8822036165509</v>
       </c>
       <c r="U20" t="n">
-        <v>386.8822036165508</v>
+        <v>386.8822036165509</v>
       </c>
       <c r="V20" t="n">
-        <v>395.7596259400711</v>
+        <v>395.7596259400714</v>
       </c>
       <c r="W20" t="n">
-        <v>387.6287300203404</v>
+        <v>387.6287300203405</v>
       </c>
       <c r="X20" t="n">
-        <v>357.3905103946103</v>
+        <v>357.3905103946104</v>
       </c>
       <c r="Y20" t="n">
-        <v>304.4221360984318</v>
+        <v>304.4221360984321</v>
       </c>
     </row>
     <row r="21">
@@ -5805,7 +5805,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>195.8810269804392</v>
+        <v>207.7937914784335</v>
       </c>
       <c r="C21" t="n">
         <v>107.8544919986174</v>
@@ -5814,67 +5814,67 @@
         <v>107.8544919986174</v>
       </c>
       <c r="E21" t="n">
-        <v>107.8544919986174</v>
+        <v>7.915192518801428</v>
       </c>
       <c r="F21" t="n">
-        <v>107.8544919986174</v>
+        <v>7.915192518801428</v>
       </c>
       <c r="G21" t="n">
-        <v>107.8544919986174</v>
+        <v>7.915192518801428</v>
       </c>
       <c r="H21" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801428</v>
       </c>
       <c r="I21" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801428</v>
       </c>
       <c r="J21" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801428</v>
       </c>
       <c r="K21" t="n">
         <v>46.88760930735559</v>
       </c>
       <c r="L21" t="n">
-        <v>46.88760930735559</v>
+        <v>144.8381167275232</v>
       </c>
       <c r="M21" t="n">
         <v>144.8381167275232</v>
       </c>
       <c r="N21" t="n">
-        <v>242.7886241476908</v>
+        <v>242.7886241476909</v>
       </c>
       <c r="O21" t="n">
-        <v>340.7391315678584</v>
+        <v>310.9412108360668</v>
       </c>
       <c r="P21" t="n">
-        <v>395.7596259400711</v>
+        <v>395.7596259400714</v>
       </c>
       <c r="Q21" t="n">
-        <v>395.7596259400711</v>
+        <v>395.7596259400714</v>
       </c>
       <c r="R21" t="n">
-        <v>395.7596259400711</v>
+        <v>395.7596259400714</v>
       </c>
       <c r="S21" t="n">
-        <v>295.8203264602552</v>
+        <v>395.7596259400714</v>
       </c>
       <c r="T21" t="n">
-        <v>295.8203264602552</v>
+        <v>395.7596259400714</v>
       </c>
       <c r="U21" t="n">
-        <v>195.8810269804392</v>
+        <v>395.7596259400714</v>
       </c>
       <c r="V21" t="n">
-        <v>195.8810269804392</v>
+        <v>395.7596259400714</v>
       </c>
       <c r="W21" t="n">
-        <v>195.8810269804392</v>
+        <v>307.7330909582495</v>
       </c>
       <c r="X21" t="n">
-        <v>195.8810269804392</v>
+        <v>307.7330909582495</v>
       </c>
       <c r="Y21" t="n">
-        <v>195.8810269804392</v>
+        <v>207.7937914784335</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801428</v>
       </c>
       <c r="C22" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801428</v>
       </c>
       <c r="D22" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801428</v>
       </c>
       <c r="E22" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801428</v>
       </c>
       <c r="F22" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801428</v>
       </c>
       <c r="G22" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801428</v>
       </c>
       <c r="H22" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801428</v>
       </c>
       <c r="I22" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801428</v>
       </c>
       <c r="J22" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801428</v>
       </c>
       <c r="K22" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801428</v>
       </c>
       <c r="L22" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801428</v>
       </c>
       <c r="M22" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801428</v>
       </c>
       <c r="N22" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801428</v>
       </c>
       <c r="O22" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801428</v>
       </c>
       <c r="P22" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801428</v>
       </c>
       <c r="Q22" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801428</v>
       </c>
       <c r="R22" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801428</v>
       </c>
       <c r="S22" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801428</v>
       </c>
       <c r="T22" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801428</v>
       </c>
       <c r="U22" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801428</v>
       </c>
       <c r="V22" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801428</v>
       </c>
       <c r="W22" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801428</v>
       </c>
       <c r="X22" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801428</v>
       </c>
       <c r="Y22" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801428</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>259.7349002271192</v>
+        <v>259.734900227119</v>
       </c>
       <c r="C23" t="n">
-        <v>239.1706370796994</v>
+        <v>239.1706370796993</v>
       </c>
       <c r="D23" t="n">
-        <v>231.1653009413215</v>
+        <v>231.1653009413216</v>
       </c>
       <c r="E23" t="n">
-        <v>189.1127401368741</v>
+        <v>189.1127401368743</v>
       </c>
       <c r="F23" t="n">
-        <v>115.0194343037627</v>
+        <v>115.019434303763</v>
       </c>
       <c r="G23" t="n">
-        <v>25.14115287666375</v>
+        <v>25.14115287666362</v>
       </c>
       <c r="H23" t="n">
-        <v>7.915192518801441</v>
+        <v>7.915192518801429</v>
       </c>
       <c r="I23" t="n">
-        <v>7.915192518801441</v>
+        <v>7.915192518801429</v>
       </c>
       <c r="J23" t="n">
-        <v>7.915192518801441</v>
+        <v>52.73204505628268</v>
       </c>
       <c r="K23" t="n">
-        <v>7.915192518801441</v>
+        <v>52.73204505628268</v>
       </c>
       <c r="L23" t="n">
-        <v>56.47914923314349</v>
+        <v>101.2960017706247</v>
       </c>
       <c r="M23" t="n">
-        <v>139.3918680350437</v>
+        <v>184.208720572525</v>
       </c>
       <c r="N23" t="n">
-        <v>216.803765292743</v>
+        <v>261.6206178302243</v>
       </c>
       <c r="O23" t="n">
-        <v>252.9922659824225</v>
+        <v>297.8091185199037</v>
       </c>
       <c r="P23" t="n">
-        <v>252.9922659824225</v>
+        <v>297.8091185199037</v>
       </c>
       <c r="Q23" t="n">
-        <v>252.9922659824225</v>
+        <v>297.8091185199037</v>
       </c>
       <c r="R23" t="n">
-        <v>252.9922659824225</v>
+        <v>297.8091185199037</v>
       </c>
       <c r="S23" t="n">
-        <v>307.9818972369147</v>
+        <v>297.8091185199037</v>
       </c>
       <c r="T23" t="n">
-        <v>307.9818972369147</v>
+        <v>395.7596259400714</v>
       </c>
       <c r="U23" t="n">
-        <v>386.8822036165517</v>
+        <v>395.7596259400714</v>
       </c>
       <c r="V23" t="n">
-        <v>395.7596259400721</v>
+        <v>395.7596259400714</v>
       </c>
       <c r="W23" t="n">
-        <v>387.6287300203411</v>
+        <v>387.6287300203406</v>
       </c>
       <c r="X23" t="n">
-        <v>357.3905103946109</v>
+        <v>357.3905103946105</v>
       </c>
       <c r="Y23" t="n">
-        <v>304.4221360984324</v>
+        <v>304.4221360984321</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>195.8810269804397</v>
+        <v>107.8544919986175</v>
       </c>
       <c r="C24" t="n">
-        <v>107.8544919986176</v>
+        <v>107.8544919986175</v>
       </c>
       <c r="D24" t="n">
-        <v>107.8544919986176</v>
+        <v>107.8544919986175</v>
       </c>
       <c r="E24" t="n">
-        <v>7.915192518801441</v>
+        <v>107.8544919986175</v>
       </c>
       <c r="F24" t="n">
-        <v>7.915192518801441</v>
+        <v>107.8544919986175</v>
       </c>
       <c r="G24" t="n">
-        <v>7.915192518801441</v>
+        <v>107.8544919986175</v>
       </c>
       <c r="H24" t="n">
-        <v>7.915192518801441</v>
+        <v>7.915192518801429</v>
       </c>
       <c r="I24" t="n">
-        <v>7.915192518801441</v>
+        <v>7.915192518801429</v>
       </c>
       <c r="J24" t="n">
-        <v>7.915192518801441</v>
+        <v>7.915192518801429</v>
       </c>
       <c r="K24" t="n">
-        <v>46.8876093073556</v>
+        <v>46.88760930735559</v>
       </c>
       <c r="L24" t="n">
-        <v>46.8876093073556</v>
+        <v>144.8381167275233</v>
       </c>
       <c r="M24" t="n">
-        <v>144.8381167275234</v>
+        <v>242.7886241476909</v>
       </c>
       <c r="N24" t="n">
-        <v>242.7886241476913</v>
+        <v>340.7391315678586</v>
       </c>
       <c r="O24" t="n">
-        <v>310.9412108360675</v>
+        <v>340.7391315678586</v>
       </c>
       <c r="P24" t="n">
-        <v>395.7596259400721</v>
+        <v>395.7596259400714</v>
       </c>
       <c r="Q24" t="n">
-        <v>395.7596259400721</v>
+        <v>395.7596259400714</v>
       </c>
       <c r="R24" t="n">
-        <v>395.7596259400721</v>
+        <v>295.8203264602554</v>
       </c>
       <c r="S24" t="n">
-        <v>395.7596259400721</v>
+        <v>207.7937914784335</v>
       </c>
       <c r="T24" t="n">
-        <v>395.7596259400721</v>
+        <v>207.7937914784335</v>
       </c>
       <c r="U24" t="n">
-        <v>295.8203264602558</v>
+        <v>107.8544919986175</v>
       </c>
       <c r="V24" t="n">
-        <v>295.8203264602558</v>
+        <v>107.8544919986175</v>
       </c>
       <c r="W24" t="n">
-        <v>195.8810269804397</v>
+        <v>107.8544919986175</v>
       </c>
       <c r="X24" t="n">
-        <v>195.8810269804397</v>
+        <v>107.8544919986175</v>
       </c>
       <c r="Y24" t="n">
-        <v>195.8810269804397</v>
+        <v>107.8544919986175</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>7.915192518801441</v>
+        <v>7.915192518801429</v>
       </c>
       <c r="C25" t="n">
-        <v>7.915192518801441</v>
+        <v>7.915192518801429</v>
       </c>
       <c r="D25" t="n">
-        <v>7.915192518801441</v>
+        <v>7.915192518801429</v>
       </c>
       <c r="E25" t="n">
-        <v>7.915192518801441</v>
+        <v>7.915192518801429</v>
       </c>
       <c r="F25" t="n">
-        <v>7.915192518801441</v>
+        <v>7.915192518801429</v>
       </c>
       <c r="G25" t="n">
-        <v>7.915192518801441</v>
+        <v>7.915192518801429</v>
       </c>
       <c r="H25" t="n">
-        <v>7.915192518801441</v>
+        <v>7.915192518801429</v>
       </c>
       <c r="I25" t="n">
-        <v>7.915192518801441</v>
+        <v>7.915192518801429</v>
       </c>
       <c r="J25" t="n">
-        <v>7.915192518801441</v>
+        <v>7.915192518801429</v>
       </c>
       <c r="K25" t="n">
-        <v>7.915192518801441</v>
+        <v>7.915192518801429</v>
       </c>
       <c r="L25" t="n">
-        <v>7.915192518801441</v>
+        <v>7.915192518801429</v>
       </c>
       <c r="M25" t="n">
-        <v>7.915192518801441</v>
+        <v>7.915192518801429</v>
       </c>
       <c r="N25" t="n">
-        <v>7.915192518801441</v>
+        <v>7.915192518801429</v>
       </c>
       <c r="O25" t="n">
-        <v>7.915192518801441</v>
+        <v>7.915192518801429</v>
       </c>
       <c r="P25" t="n">
-        <v>7.915192518801441</v>
+        <v>7.915192518801429</v>
       </c>
       <c r="Q25" t="n">
-        <v>7.915192518801441</v>
+        <v>7.915192518801429</v>
       </c>
       <c r="R25" t="n">
-        <v>7.915192518801441</v>
+        <v>7.915192518801429</v>
       </c>
       <c r="S25" t="n">
-        <v>7.915192518801441</v>
+        <v>7.915192518801429</v>
       </c>
       <c r="T25" t="n">
-        <v>7.915192518801441</v>
+        <v>7.915192518801429</v>
       </c>
       <c r="U25" t="n">
-        <v>7.915192518801441</v>
+        <v>7.915192518801429</v>
       </c>
       <c r="V25" t="n">
-        <v>7.915192518801441</v>
+        <v>7.915192518801429</v>
       </c>
       <c r="W25" t="n">
-        <v>7.915192518801441</v>
+        <v>7.915192518801429</v>
       </c>
       <c r="X25" t="n">
-        <v>7.915192518801441</v>
+        <v>7.915192518801429</v>
       </c>
       <c r="Y25" t="n">
-        <v>7.915192518801441</v>
+        <v>7.915192518801429</v>
       </c>
     </row>
     <row r="26">
@@ -6212,49 +6212,49 @@
         <v>599.7659673901225</v>
       </c>
       <c r="F26" t="n">
-        <v>407.5048206281024</v>
+        <v>407.5048206281023</v>
       </c>
       <c r="G26" t="n">
-        <v>199.458698272095</v>
+        <v>199.4586982720948</v>
       </c>
       <c r="H26" t="n">
-        <v>64.06489698532408</v>
+        <v>64.06489698532364</v>
       </c>
       <c r="I26" t="n">
-        <v>36.09092491936867</v>
+        <v>36.09092491936865</v>
       </c>
       <c r="J26" t="n">
         <v>171.8005131365275</v>
       </c>
       <c r="K26" t="n">
-        <v>377.3583775511678</v>
+        <v>377.3583775511677</v>
       </c>
       <c r="L26" t="n">
-        <v>636.6544414676673</v>
+        <v>636.6544414676671</v>
       </c>
       <c r="M26" t="n">
-        <v>930.2992674717251</v>
+        <v>930.2992674717248</v>
       </c>
       <c r="N26" t="n">
-        <v>1218.443271931582</v>
+        <v>1218.443271931581</v>
       </c>
       <c r="O26" t="n">
-        <v>1465.363879823419</v>
+        <v>1465.363879823417</v>
       </c>
       <c r="P26" t="n">
-        <v>1662.834462498259</v>
+        <v>1662.834462498258</v>
       </c>
       <c r="Q26" t="n">
-        <v>1786.013205691</v>
+        <v>1786.013205690999</v>
       </c>
       <c r="R26" t="n">
         <v>1804.546245968433</v>
       </c>
       <c r="S26" t="n">
-        <v>1790.013473208037</v>
+        <v>1790.013473208036</v>
       </c>
       <c r="T26" t="n">
-        <v>1780.363449404579</v>
+        <v>1780.363449404578</v>
       </c>
       <c r="U26" t="n">
         <v>1742.697910668953</v>
@@ -6279,34 +6279,34 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>283.7003076624521</v>
+        <v>462.2361605893867</v>
       </c>
       <c r="C27" t="n">
-        <v>283.7003076624521</v>
+        <v>272.8238863223504</v>
       </c>
       <c r="D27" t="n">
-        <v>283.7003076624521</v>
+        <v>272.8238863223504</v>
       </c>
       <c r="E27" t="n">
-        <v>283.7003076624521</v>
+        <v>248.9214744290845</v>
       </c>
       <c r="F27" t="n">
-        <v>123.2725913796962</v>
+        <v>88.49375814632855</v>
       </c>
       <c r="G27" t="n">
-        <v>36.09092491936867</v>
+        <v>88.49375814632855</v>
       </c>
       <c r="H27" t="n">
-        <v>36.09092491936867</v>
+        <v>88.49375814632855</v>
       </c>
       <c r="I27" t="n">
-        <v>36.09092491936867</v>
+        <v>88.49375814632855</v>
       </c>
       <c r="J27" t="n">
-        <v>36.09092491936867</v>
+        <v>36.09092491936865</v>
       </c>
       <c r="K27" t="n">
-        <v>75.06334170792283</v>
+        <v>75.06334170792282</v>
       </c>
       <c r="L27" t="n">
         <v>193.7531079096928</v>
@@ -6333,22 +6333,22 @@
         <v>801.5495631391818</v>
       </c>
       <c r="T27" t="n">
-        <v>799.4437382695104</v>
+        <v>584.4329156981835</v>
       </c>
       <c r="U27" t="n">
-        <v>774.8306676894572</v>
+        <v>559.8198451181302</v>
       </c>
       <c r="V27" t="n">
-        <v>531.7509495930913</v>
+        <v>531.750949593091</v>
       </c>
       <c r="W27" t="n">
-        <v>477.3632028947094</v>
+        <v>477.3632028947091</v>
       </c>
       <c r="X27" t="n">
-        <v>472.8660310827327</v>
+        <v>472.8660310827322</v>
       </c>
       <c r="Y27" t="n">
-        <v>462.2361605893872</v>
+        <v>462.2361605893867</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>70.98228066320772</v>
+        <v>36.09092491936865</v>
       </c>
       <c r="C28" t="n">
-        <v>70.98228066320772</v>
+        <v>36.09092491936865</v>
       </c>
       <c r="D28" t="n">
-        <v>70.98228066320772</v>
+        <v>36.09092491936865</v>
       </c>
       <c r="E28" t="n">
-        <v>70.98228066320772</v>
+        <v>36.09092491936865</v>
       </c>
       <c r="F28" t="n">
-        <v>70.98228066320772</v>
+        <v>36.09092491936865</v>
       </c>
       <c r="G28" t="n">
-        <v>70.98228066320772</v>
+        <v>36.09092491936865</v>
       </c>
       <c r="H28" t="n">
-        <v>117.5948138910357</v>
+        <v>36.09092491936865</v>
       </c>
       <c r="I28" t="n">
-        <v>117.5948138910357</v>
+        <v>36.09092491936865</v>
       </c>
       <c r="J28" t="n">
-        <v>117.5948138910357</v>
+        <v>75.45396469873498</v>
       </c>
       <c r="K28" t="n">
-        <v>117.5948138910357</v>
+        <v>75.45396469873498</v>
       </c>
       <c r="L28" t="n">
-        <v>117.5948138910357</v>
+        <v>75.45396469873498</v>
       </c>
       <c r="M28" t="n">
-        <v>117.5948138910357</v>
+        <v>75.45396469873498</v>
       </c>
       <c r="N28" t="n">
-        <v>117.5948138910357</v>
+        <v>270.6328299641013</v>
       </c>
       <c r="O28" t="n">
-        <v>270.6328299641007</v>
+        <v>270.6328299641013</v>
       </c>
       <c r="P28" t="n">
-        <v>270.6328299641007</v>
+        <v>270.6328299641013</v>
       </c>
       <c r="Q28" t="n">
-        <v>270.6328299641007</v>
+        <v>270.6328299641013</v>
       </c>
       <c r="R28" t="n">
-        <v>270.6328299641007</v>
+        <v>270.6328299641013</v>
       </c>
       <c r="S28" t="n">
-        <v>247.9206018387757</v>
+        <v>247.9206018387763</v>
       </c>
       <c r="T28" t="n">
-        <v>236.9324876316153</v>
+        <v>236.9324876316158</v>
       </c>
       <c r="U28" t="n">
-        <v>160.3713220039564</v>
+        <v>160.3713220039567</v>
       </c>
       <c r="V28" t="n">
-        <v>127.7972807526066</v>
+        <v>127.7972807526068</v>
       </c>
       <c r="W28" t="n">
-        <v>49.56496484985733</v>
+        <v>49.56496484985748</v>
       </c>
       <c r="X28" t="n">
-        <v>40.41472135225234</v>
+        <v>40.41472135225241</v>
       </c>
       <c r="Y28" t="n">
-        <v>36.09092491936867</v>
+        <v>36.09092491936865</v>
       </c>
     </row>
     <row r="29">
@@ -6440,13 +6440,13 @@
         <v>1024.891650267094</v>
       </c>
       <c r="C29" t="n">
-        <v>886.1595461907651</v>
+        <v>886.1595461907654</v>
       </c>
       <c r="D29" t="n">
         <v>759.9863691234787</v>
       </c>
       <c r="E29" t="n">
-        <v>599.7659673901223</v>
+        <v>599.7659673901225</v>
       </c>
       <c r="F29" t="n">
         <v>407.5048206281023</v>
@@ -6455,37 +6455,37 @@
         <v>199.4586982720948</v>
       </c>
       <c r="H29" t="n">
-        <v>64.06489698532366</v>
+        <v>64.06489698532371</v>
       </c>
       <c r="I29" t="n">
         <v>36.09092491936867</v>
       </c>
       <c r="J29" t="n">
-        <v>171.8005131365275</v>
+        <v>171.8005131365276</v>
       </c>
       <c r="K29" t="n">
-        <v>377.3583775511677</v>
+        <v>377.3583775511679</v>
       </c>
       <c r="L29" t="n">
-        <v>636.6544414676671</v>
+        <v>636.6544414676673</v>
       </c>
       <c r="M29" t="n">
-        <v>930.2992674717248</v>
+        <v>930.299267471725</v>
       </c>
       <c r="N29" t="n">
-        <v>1218.443271931581</v>
+        <v>1218.443271931582</v>
       </c>
       <c r="O29" t="n">
-        <v>1465.363879823418</v>
+        <v>1465.363879823419</v>
       </c>
       <c r="P29" t="n">
-        <v>1662.834462498258</v>
+        <v>1662.834462498259</v>
       </c>
       <c r="Q29" t="n">
         <v>1786.013205691</v>
       </c>
       <c r="R29" t="n">
-        <v>1804.546245968433</v>
+        <v>1804.546245968434</v>
       </c>
       <c r="S29" t="n">
         <v>1790.013473208037</v>
@@ -6494,7 +6494,7 @@
         <v>1780.363449404579</v>
       </c>
       <c r="U29" t="n">
-        <v>1742.697910668954</v>
+        <v>1742.697910668953</v>
       </c>
       <c r="V29" t="n">
         <v>1633.587739695682</v>
@@ -6516,28 +6516,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>247.2253380180598</v>
+        <v>268.8285396055171</v>
       </c>
       <c r="C30" t="n">
-        <v>247.2253380180598</v>
+        <v>268.8285396055171</v>
       </c>
       <c r="D30" t="n">
-        <v>186.3316241758205</v>
+        <v>268.8285396055171</v>
       </c>
       <c r="E30" t="n">
-        <v>186.3316241758205</v>
+        <v>215.4377600846062</v>
       </c>
       <c r="F30" t="n">
-        <v>186.3316241758205</v>
+        <v>215.4377600846062</v>
       </c>
       <c r="G30" t="n">
-        <v>36.09092491936867</v>
+        <v>215.4377600846062</v>
       </c>
       <c r="H30" t="n">
-        <v>36.09092491936867</v>
+        <v>88.49375814632856</v>
       </c>
       <c r="I30" t="n">
-        <v>36.09092491936867</v>
+        <v>88.49375814632856</v>
       </c>
       <c r="J30" t="n">
         <v>36.09092491936867</v>
@@ -6567,25 +6567,25 @@
         <v>801.5495631391818</v>
       </c>
       <c r="S30" t="n">
-        <v>801.5495631391818</v>
+        <v>608.1419421553122</v>
       </c>
       <c r="T30" t="n">
-        <v>799.4437382695103</v>
+        <v>606.0361172856407</v>
       </c>
       <c r="U30" t="n">
-        <v>559.8198451181302</v>
+        <v>366.4122241342606</v>
       </c>
       <c r="V30" t="n">
-        <v>316.7401270217642</v>
+        <v>338.3433286092214</v>
       </c>
       <c r="W30" t="n">
-        <v>262.3523803233823</v>
+        <v>283.9555819108395</v>
       </c>
       <c r="X30" t="n">
-        <v>257.8552085114054</v>
+        <v>279.4584100988626</v>
       </c>
       <c r="Y30" t="n">
-        <v>247.2253380180598</v>
+        <v>268.8285396055171</v>
       </c>
     </row>
     <row r="31">
@@ -6616,22 +6616,22 @@
         <v>36.09092491936867</v>
       </c>
       <c r="I31" t="n">
-        <v>83.77614553397345</v>
+        <v>36.09092491936867</v>
       </c>
       <c r="J31" t="n">
-        <v>83.77614553397345</v>
+        <v>36.09092491936867</v>
       </c>
       <c r="K31" t="n">
-        <v>83.77614553397345</v>
+        <v>36.09092491936867</v>
       </c>
       <c r="L31" t="n">
-        <v>263.4568549324259</v>
+        <v>36.09092491936867</v>
       </c>
       <c r="M31" t="n">
-        <v>263.4568549324259</v>
+        <v>36.09092491936867</v>
       </c>
       <c r="N31" t="n">
-        <v>270.6328299641013</v>
+        <v>96.26430540999522</v>
       </c>
       <c r="O31" t="n">
         <v>270.6328299641013</v>
@@ -6661,7 +6661,7 @@
         <v>49.5649648498575</v>
       </c>
       <c r="X31" t="n">
-        <v>40.41472135225242</v>
+        <v>40.41472135225243</v>
       </c>
       <c r="Y31" t="n">
         <v>36.09092491936867</v>
@@ -6677,22 +6677,22 @@
         <v>1024.891650267094</v>
       </c>
       <c r="C32" t="n">
-        <v>886.1595461907651</v>
+        <v>886.1595461907652</v>
       </c>
       <c r="D32" t="n">
-        <v>759.9863691234784</v>
+        <v>759.9863691234785</v>
       </c>
       <c r="E32" t="n">
-        <v>599.7659673901222</v>
+        <v>599.7659673901223</v>
       </c>
       <c r="F32" t="n">
-        <v>407.504820628102</v>
+        <v>407.5048206281021</v>
       </c>
       <c r="G32" t="n">
-        <v>199.4586982720946</v>
+        <v>199.4586982720948</v>
       </c>
       <c r="H32" t="n">
-        <v>64.06489698532346</v>
+        <v>64.06489698532368</v>
       </c>
       <c r="I32" t="n">
         <v>36.09092491936867</v>
@@ -6701,37 +6701,37 @@
         <v>171.8005131365275</v>
       </c>
       <c r="K32" t="n">
-        <v>377.3583775511677</v>
+        <v>377.3583775511679</v>
       </c>
       <c r="L32" t="n">
-        <v>636.6544414676671</v>
+        <v>636.6544414676673</v>
       </c>
       <c r="M32" t="n">
-        <v>930.2992674717248</v>
+        <v>930.299267471725</v>
       </c>
       <c r="N32" t="n">
-        <v>1218.443271931581</v>
+        <v>1218.443271931582</v>
       </c>
       <c r="O32" t="n">
-        <v>1465.363879823418</v>
+        <v>1465.363879823419</v>
       </c>
       <c r="P32" t="n">
-        <v>1662.834462498258</v>
+        <v>1662.834462498259</v>
       </c>
       <c r="Q32" t="n">
         <v>1786.013205691</v>
       </c>
       <c r="R32" t="n">
-        <v>1804.546245968433</v>
+        <v>1804.546245968434</v>
       </c>
       <c r="S32" t="n">
-        <v>1790.013473208036</v>
+        <v>1790.013473208037</v>
       </c>
       <c r="T32" t="n">
-        <v>1780.363449404578</v>
+        <v>1780.363449404579</v>
       </c>
       <c r="U32" t="n">
-        <v>1742.697910668953</v>
+        <v>1742.697910668954</v>
       </c>
       <c r="V32" t="n">
         <v>1633.587739695682</v>
@@ -6753,16 +6753,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>385.9309154691608</v>
+        <v>225.503199186405</v>
       </c>
       <c r="C33" t="n">
-        <v>196.5186412021246</v>
+        <v>36.09092491936867</v>
       </c>
       <c r="D33" t="n">
-        <v>196.5186412021246</v>
+        <v>36.09092491936867</v>
       </c>
       <c r="E33" t="n">
-        <v>196.5186412021246</v>
+        <v>36.09092491936867</v>
       </c>
       <c r="F33" t="n">
         <v>36.09092491936867</v>
@@ -6804,25 +6804,25 @@
         <v>801.5495631391818</v>
       </c>
       <c r="S33" t="n">
-        <v>801.5495631391818</v>
+        <v>608.1419421553122</v>
       </c>
       <c r="T33" t="n">
-        <v>799.4437382695103</v>
+        <v>606.0361172856407</v>
       </c>
       <c r="U33" t="n">
-        <v>559.8198451181302</v>
+        <v>581.4230467055874</v>
       </c>
       <c r="V33" t="n">
-        <v>455.4457044728652</v>
+        <v>510.0288107614361</v>
       </c>
       <c r="W33" t="n">
-        <v>401.0579577744833</v>
+        <v>455.6410640630542</v>
       </c>
       <c r="X33" t="n">
-        <v>396.5607859625064</v>
+        <v>451.1438922510773</v>
       </c>
       <c r="Y33" t="n">
-        <v>385.9309154691608</v>
+        <v>225.503199186405</v>
       </c>
     </row>
     <row r="34">
@@ -6835,70 +6835,70 @@
         <v>36.09092491936867</v>
       </c>
       <c r="C34" t="n">
-        <v>36.09092491936867</v>
+        <v>82.03042295927338</v>
       </c>
       <c r="D34" t="n">
-        <v>36.09092491936867</v>
+        <v>82.03042295927338</v>
       </c>
       <c r="E34" t="n">
-        <v>36.09092491936867</v>
+        <v>82.03042295927338</v>
       </c>
       <c r="F34" t="n">
-        <v>36.09092491936867</v>
+        <v>155.2249167651685</v>
       </c>
       <c r="G34" t="n">
-        <v>36.09092491936867</v>
+        <v>155.2249167651685</v>
       </c>
       <c r="H34" t="n">
-        <v>82.70345814719653</v>
+        <v>155.2249167651685</v>
       </c>
       <c r="I34" t="n">
-        <v>130.3886787618013</v>
+        <v>155.2249167651685</v>
       </c>
       <c r="J34" t="n">
-        <v>130.3886787618013</v>
+        <v>155.2249167651685</v>
       </c>
       <c r="K34" t="n">
-        <v>270.6328299641013</v>
+        <v>155.2249167651685</v>
       </c>
       <c r="L34" t="n">
-        <v>270.6328299641013</v>
+        <v>155.2249167651685</v>
       </c>
       <c r="M34" t="n">
-        <v>270.6328299641013</v>
+        <v>270.6328299641015</v>
       </c>
       <c r="N34" t="n">
-        <v>270.6328299641013</v>
+        <v>270.6328299641015</v>
       </c>
       <c r="O34" t="n">
-        <v>270.6328299641013</v>
+        <v>270.6328299641015</v>
       </c>
       <c r="P34" t="n">
-        <v>270.6328299641013</v>
+        <v>270.6328299641015</v>
       </c>
       <c r="Q34" t="n">
-        <v>270.6328299641013</v>
+        <v>270.6328299641015</v>
       </c>
       <c r="R34" t="n">
-        <v>270.6328299641013</v>
+        <v>270.6328299641015</v>
       </c>
       <c r="S34" t="n">
-        <v>247.9206018387763</v>
+        <v>247.9206018387764</v>
       </c>
       <c r="T34" t="n">
-        <v>236.9324876316158</v>
+        <v>236.9324876316159</v>
       </c>
       <c r="U34" t="n">
-        <v>160.3713220039567</v>
+        <v>160.3713220039568</v>
       </c>
       <c r="V34" t="n">
-        <v>127.7972807526068</v>
+        <v>127.7972807526069</v>
       </c>
       <c r="W34" t="n">
-        <v>49.5649648498575</v>
+        <v>49.56496484985756</v>
       </c>
       <c r="X34" t="n">
-        <v>40.41472135225242</v>
+        <v>40.41472135225246</v>
       </c>
       <c r="Y34" t="n">
         <v>36.09092491936867</v>
@@ -6914,7 +6914,7 @@
         <v>821.158653286607</v>
       </c>
       <c r="C35" t="n">
-        <v>710.4005212762332</v>
+        <v>710.4005212762333</v>
       </c>
       <c r="D35" t="n">
         <v>612.2013162749017</v>
@@ -6923,7 +6923,7 @@
         <v>479.9548866075004</v>
       </c>
       <c r="F35" t="n">
-        <v>315.6677119114352</v>
+        <v>315.6677119114353</v>
       </c>
       <c r="G35" t="n">
         <v>135.5955616213834</v>
@@ -6938,31 +6938,31 @@
         <v>191.3026106395686</v>
       </c>
       <c r="K35" t="n">
-        <v>424.2777650760512</v>
+        <v>191.3026106395686</v>
       </c>
       <c r="L35" t="n">
-        <v>710.991119014393</v>
+        <v>478.0159645779105</v>
       </c>
       <c r="M35" t="n">
-        <v>1032.053235040293</v>
+        <v>799.0780806038106</v>
       </c>
       <c r="N35" t="n">
-        <v>1134.448722114683</v>
+        <v>876.4899778615098</v>
       </c>
       <c r="O35" t="n">
-        <v>1408.786620028362</v>
+        <v>956.2193626863684</v>
       </c>
       <c r="P35" t="n">
-        <v>1408.786620028362</v>
+        <v>1181.107235383051</v>
       </c>
       <c r="Q35" t="n">
-        <v>1408.786620028362</v>
+        <v>1331.703268597635</v>
       </c>
       <c r="R35" t="n">
-        <v>1408.786620028362</v>
+        <v>1377.653598896911</v>
       </c>
       <c r="S35" t="n">
-        <v>1408.786620028362</v>
+        <v>1390.827318336289</v>
       </c>
       <c r="T35" t="n">
         <v>1408.786620028362</v>
@@ -6990,28 +6990,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>301.8610863128169</v>
+        <v>547.1755410892929</v>
       </c>
       <c r="C36" t="n">
-        <v>301.8610863128169</v>
+        <v>357.7632668222566</v>
       </c>
       <c r="D36" t="n">
-        <v>141.0809700738486</v>
+        <v>357.7632668222566</v>
       </c>
       <c r="E36" t="n">
-        <v>141.0809700738486</v>
+        <v>357.7632668222566</v>
       </c>
       <c r="F36" t="n">
-        <v>141.0809700738486</v>
+        <v>357.7632668222566</v>
       </c>
       <c r="G36" t="n">
-        <v>28.17573240056725</v>
+        <v>207.5225675658048</v>
       </c>
       <c r="H36" t="n">
-        <v>28.17573240056725</v>
+        <v>80.57856562752714</v>
       </c>
       <c r="I36" t="n">
-        <v>28.17573240056725</v>
+        <v>80.57856562752714</v>
       </c>
       <c r="J36" t="n">
         <v>28.17573240056725</v>
@@ -7035,31 +7035,31 @@
         <v>793.6343706203804</v>
       </c>
       <c r="Q36" t="n">
-        <v>793.6343706203804</v>
+        <v>787.5094133372634</v>
       </c>
       <c r="R36" t="n">
-        <v>793.6343706203804</v>
+        <v>787.5094133372634</v>
       </c>
       <c r="S36" t="n">
-        <v>793.6343706203804</v>
+        <v>787.5094133372634</v>
       </c>
       <c r="T36" t="n">
-        <v>793.6343706203804</v>
+        <v>787.5094133372634</v>
       </c>
       <c r="U36" t="n">
-        <v>554.0104774690003</v>
+        <v>787.5094133372634</v>
       </c>
       <c r="V36" t="n">
-        <v>553.9155540099161</v>
+        <v>573.5893157217198</v>
       </c>
       <c r="W36" t="n">
-        <v>527.5017793774892</v>
+        <v>547.1755410892929</v>
       </c>
       <c r="X36" t="n">
-        <v>527.5017793774892</v>
+        <v>547.1755410892929</v>
       </c>
       <c r="Y36" t="n">
-        <v>301.8610863128169</v>
+        <v>547.1755410892929</v>
       </c>
     </row>
     <row r="37">
@@ -7078,58 +7078,58 @@
         <v>28.17573240056725</v>
       </c>
       <c r="E37" t="n">
-        <v>28.17573240056725</v>
+        <v>126.0657498244643</v>
       </c>
       <c r="F37" t="n">
-        <v>28.17573240056725</v>
+        <v>131.6213389844606</v>
       </c>
       <c r="G37" t="n">
-        <v>28.17573240056725</v>
+        <v>131.6213389844606</v>
       </c>
       <c r="H37" t="n">
-        <v>28.17573240056725</v>
+        <v>131.6213389844606</v>
       </c>
       <c r="I37" t="n">
-        <v>28.17573240056725</v>
+        <v>131.6213389844606</v>
       </c>
       <c r="J37" t="n">
-        <v>131.6213389844607</v>
+        <v>131.6213389844606</v>
       </c>
       <c r="K37" t="n">
-        <v>131.6213389844607</v>
+        <v>131.6213389844606</v>
       </c>
       <c r="L37" t="n">
-        <v>131.6213389844607</v>
+        <v>131.6213389844606</v>
       </c>
       <c r="M37" t="n">
-        <v>131.6213389844607</v>
+        <v>131.6213389844606</v>
       </c>
       <c r="N37" t="n">
-        <v>131.6213389844607</v>
+        <v>131.6213389844606</v>
       </c>
       <c r="O37" t="n">
-        <v>131.6213389844607</v>
+        <v>131.6213389844606</v>
       </c>
       <c r="P37" t="n">
-        <v>131.6213389844607</v>
+        <v>131.6213389844606</v>
       </c>
       <c r="Q37" t="n">
-        <v>131.6213389844607</v>
+        <v>131.6213389844606</v>
       </c>
       <c r="R37" t="n">
-        <v>131.6213389844607</v>
+        <v>131.6213389844606</v>
       </c>
       <c r="S37" t="n">
-        <v>131.6213389844607</v>
+        <v>131.6213389844606</v>
       </c>
       <c r="T37" t="n">
-        <v>131.6213389844607</v>
+        <v>131.6213389844606</v>
       </c>
       <c r="U37" t="n">
-        <v>83.03414542275655</v>
+        <v>83.0341454227565</v>
       </c>
       <c r="V37" t="n">
-        <v>78.43407623736161</v>
+        <v>78.43407623736158</v>
       </c>
       <c r="W37" t="n">
         <v>28.17573240056725</v>
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>821.158653286607</v>
+        <v>821.1586532866072</v>
       </c>
       <c r="C38" t="n">
-        <v>710.4005212762333</v>
+        <v>710.4005212762336</v>
       </c>
       <c r="D38" t="n">
-        <v>612.2013162749016</v>
+        <v>612.2013162749018</v>
       </c>
       <c r="E38" t="n">
-        <v>479.9548866075004</v>
+        <v>479.9548866075006</v>
       </c>
       <c r="F38" t="n">
-        <v>315.6677119114352</v>
+        <v>315.6677119114354</v>
       </c>
       <c r="G38" t="n">
         <v>135.5955616213834</v>
@@ -7172,28 +7172,28 @@
         <v>28.17573240056725</v>
       </c>
       <c r="J38" t="n">
-        <v>28.17573240056725</v>
+        <v>191.3026106395686</v>
       </c>
       <c r="K38" t="n">
-        <v>28.17573240056725</v>
+        <v>424.2777650760512</v>
       </c>
       <c r="L38" t="n">
-        <v>283.4074514890898</v>
+        <v>567.5071790123661</v>
       </c>
       <c r="M38" t="n">
-        <v>604.4695675149899</v>
+        <v>888.5692950382661</v>
       </c>
       <c r="N38" t="n">
-        <v>920.0308619966889</v>
+        <v>965.9811922959653</v>
       </c>
       <c r="O38" t="n">
-        <v>956.2193626863684</v>
+        <v>1002.169692985645</v>
       </c>
       <c r="P38" t="n">
-        <v>1181.107235383051</v>
+        <v>1227.057565682327</v>
       </c>
       <c r="Q38" t="n">
-        <v>1331.703268597635</v>
+        <v>1377.653598896911</v>
       </c>
       <c r="R38" t="n">
         <v>1377.653598896911</v>
@@ -7211,13 +7211,13 @@
         <v>1317.958854451375</v>
       </c>
       <c r="W38" t="n">
-        <v>1219.63408966869</v>
+        <v>1219.634089668691</v>
       </c>
       <c r="X38" t="n">
-        <v>1099.202001180006</v>
+        <v>1099.202001180007</v>
       </c>
       <c r="Y38" t="n">
-        <v>956.039758020874</v>
+        <v>956.0397580208743</v>
       </c>
     </row>
     <row r="39">
@@ -7227,22 +7227,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>305.3604335952967</v>
+        <v>541.4849794641971</v>
       </c>
       <c r="C39" t="n">
-        <v>305.3604335952967</v>
+        <v>352.0727051971608</v>
       </c>
       <c r="D39" t="n">
-        <v>305.3604335952967</v>
+        <v>191.2925889581925</v>
       </c>
       <c r="E39" t="n">
-        <v>305.3604335952967</v>
+        <v>188.6034486833232</v>
       </c>
       <c r="F39" t="n">
-        <v>305.3604335952967</v>
+        <v>28.17573240056725</v>
       </c>
       <c r="G39" t="n">
-        <v>155.1197343388449</v>
+        <v>28.17573240056725</v>
       </c>
       <c r="H39" t="n">
         <v>28.17573240056725</v>
@@ -7281,22 +7281,22 @@
         <v>793.6343706203804</v>
       </c>
       <c r="T39" t="n">
-        <v>729.9129789970465</v>
+        <v>793.6343706203804</v>
       </c>
       <c r="U39" t="n">
-        <v>729.9129789970465</v>
+        <v>793.6343706203804</v>
       </c>
       <c r="V39" t="n">
-        <v>729.8180555379623</v>
+        <v>793.5394471612963</v>
       </c>
       <c r="W39" t="n">
-        <v>703.4042809055354</v>
+        <v>767.1256725288694</v>
       </c>
       <c r="X39" t="n">
-        <v>483.8962865222318</v>
+        <v>767.1256725288694</v>
       </c>
       <c r="Y39" t="n">
-        <v>483.8962865222318</v>
+        <v>541.4849794641971</v>
       </c>
     </row>
     <row r="40">
@@ -7306,67 +7306,67 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>90.48437816624867</v>
+        <v>28.17573240056725</v>
       </c>
       <c r="C40" t="n">
-        <v>90.48437816624867</v>
+        <v>28.17573240056725</v>
       </c>
       <c r="D40" t="n">
-        <v>90.48437816624867</v>
+        <v>28.17573240056725</v>
       </c>
       <c r="E40" t="n">
-        <v>90.48437816624867</v>
+        <v>94.63203764508322</v>
       </c>
       <c r="F40" t="n">
-        <v>90.48437816624867</v>
+        <v>94.63203764508322</v>
       </c>
       <c r="G40" t="n">
-        <v>90.48437816624867</v>
+        <v>94.63203764508322</v>
       </c>
       <c r="H40" t="n">
-        <v>131.6213389844606</v>
+        <v>94.63203764508322</v>
       </c>
       <c r="I40" t="n">
-        <v>131.6213389844606</v>
+        <v>94.63203764508322</v>
       </c>
       <c r="J40" t="n">
-        <v>131.6213389844606</v>
+        <v>94.63203764508322</v>
       </c>
       <c r="K40" t="n">
-        <v>131.6213389844606</v>
+        <v>94.63203764508322</v>
       </c>
       <c r="L40" t="n">
-        <v>131.6213389844606</v>
+        <v>94.63203764508322</v>
       </c>
       <c r="M40" t="n">
-        <v>131.6213389844606</v>
+        <v>94.63203764508322</v>
       </c>
       <c r="N40" t="n">
-        <v>131.6213389844606</v>
+        <v>94.63203764508322</v>
       </c>
       <c r="O40" t="n">
-        <v>131.6213389844606</v>
+        <v>94.63203764508322</v>
       </c>
       <c r="P40" t="n">
-        <v>131.6213389844606</v>
+        <v>94.63203764508322</v>
       </c>
       <c r="Q40" t="n">
-        <v>131.6213389844606</v>
+        <v>94.63203764508322</v>
       </c>
       <c r="R40" t="n">
-        <v>131.6213389844606</v>
+        <v>131.6213389844607</v>
       </c>
       <c r="S40" t="n">
-        <v>131.6213389844606</v>
+        <v>131.6213389844607</v>
       </c>
       <c r="T40" t="n">
-        <v>131.6213389844606</v>
+        <v>131.6213389844607</v>
       </c>
       <c r="U40" t="n">
-        <v>83.0341454227565</v>
+        <v>83.03414542275655</v>
       </c>
       <c r="V40" t="n">
-        <v>78.43407623736158</v>
+        <v>78.43407623736161</v>
       </c>
       <c r="W40" t="n">
         <v>28.17573240056725</v>
@@ -7412,25 +7412,25 @@
         <v>191.3026106395685</v>
       </c>
       <c r="K41" t="n">
-        <v>191.3026106395685</v>
+        <v>424.2777650760511</v>
       </c>
       <c r="L41" t="n">
-        <v>478.0159645779103</v>
+        <v>472.8417217903931</v>
       </c>
       <c r="M41" t="n">
-        <v>799.0780806038103</v>
+        <v>793.9038378162932</v>
       </c>
       <c r="N41" t="n">
-        <v>906.7693374693722</v>
+        <v>1109.465132297992</v>
       </c>
       <c r="O41" t="n">
-        <v>1181.107235383051</v>
+        <v>1145.653632987672</v>
       </c>
       <c r="P41" t="n">
-        <v>1181.107235383051</v>
+        <v>1227.057565682327</v>
       </c>
       <c r="Q41" t="n">
-        <v>1331.703268597635</v>
+        <v>1377.653598896911</v>
       </c>
       <c r="R41" t="n">
         <v>1377.653598896911</v>
@@ -7464,28 +7464,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>339.1965478959873</v>
+        <v>465.9916325148126</v>
       </c>
       <c r="C42" t="n">
-        <v>339.1965478959873</v>
+        <v>465.9916325148126</v>
       </c>
       <c r="D42" t="n">
-        <v>178.416431657019</v>
+        <v>465.9916325148126</v>
       </c>
       <c r="E42" t="n">
-        <v>178.416431657019</v>
+        <v>465.9916325148126</v>
       </c>
       <c r="F42" t="n">
-        <v>178.416431657019</v>
+        <v>465.9916325148126</v>
       </c>
       <c r="G42" t="n">
-        <v>28.17573240056725</v>
+        <v>315.7509332583608</v>
       </c>
       <c r="H42" t="n">
-        <v>28.17573240056725</v>
+        <v>188.8069313200831</v>
       </c>
       <c r="I42" t="n">
-        <v>28.17573240056725</v>
+        <v>80.57856562752714</v>
       </c>
       <c r="J42" t="n">
         <v>28.17573240056725</v>
@@ -7512,28 +7512,28 @@
         <v>793.6343706203804</v>
       </c>
       <c r="R42" t="n">
-        <v>793.6343706203804</v>
+        <v>685.9079515901934</v>
       </c>
       <c r="S42" t="n">
-        <v>793.6343706203804</v>
+        <v>492.5003306063239</v>
       </c>
       <c r="T42" t="n">
-        <v>793.6343706203804</v>
+        <v>492.5003306063239</v>
       </c>
       <c r="U42" t="n">
-        <v>793.6343706203804</v>
+        <v>492.5003306063239</v>
       </c>
       <c r="V42" t="n">
-        <v>608.5951171656959</v>
+        <v>492.4054071472397</v>
       </c>
       <c r="W42" t="n">
-        <v>339.1965478959873</v>
+        <v>465.9916325148126</v>
       </c>
       <c r="X42" t="n">
-        <v>339.1965478959873</v>
+        <v>465.9916325148126</v>
       </c>
       <c r="Y42" t="n">
-        <v>339.1965478959873</v>
+        <v>465.9916325148126</v>
       </c>
     </row>
     <row r="43">
@@ -7543,55 +7543,55 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>28.17573240056725</v>
+        <v>51.35526953854027</v>
       </c>
       <c r="C43" t="n">
-        <v>28.17573240056725</v>
+        <v>124.7120576002874</v>
       </c>
       <c r="D43" t="n">
-        <v>28.17573240056725</v>
+        <v>131.6213389844608</v>
       </c>
       <c r="E43" t="n">
-        <v>89.47500240887217</v>
+        <v>131.6213389844608</v>
       </c>
       <c r="F43" t="n">
-        <v>89.47500240887217</v>
+        <v>131.6213389844608</v>
       </c>
       <c r="G43" t="n">
-        <v>89.47500240887217</v>
+        <v>131.6213389844608</v>
       </c>
       <c r="H43" t="n">
-        <v>89.47500240887217</v>
+        <v>131.6213389844608</v>
       </c>
       <c r="I43" t="n">
-        <v>89.47500240887217</v>
+        <v>131.6213389844608</v>
       </c>
       <c r="J43" t="n">
-        <v>89.47500240887217</v>
+        <v>131.6213389844608</v>
       </c>
       <c r="K43" t="n">
-        <v>89.47500240887217</v>
+        <v>131.6213389844608</v>
       </c>
       <c r="L43" t="n">
-        <v>89.47500240887217</v>
+        <v>131.6213389844608</v>
       </c>
       <c r="M43" t="n">
-        <v>89.47500240887217</v>
+        <v>131.6213389844608</v>
       </c>
       <c r="N43" t="n">
-        <v>89.47500240887217</v>
+        <v>131.6213389844608</v>
       </c>
       <c r="O43" t="n">
-        <v>89.47500240887217</v>
+        <v>131.6213389844608</v>
       </c>
       <c r="P43" t="n">
-        <v>89.47500240887217</v>
+        <v>131.6213389844608</v>
       </c>
       <c r="Q43" t="n">
-        <v>89.47500240887217</v>
+        <v>131.6213389844608</v>
       </c>
       <c r="R43" t="n">
-        <v>126.4643037482495</v>
+        <v>131.6213389844608</v>
       </c>
       <c r="S43" t="n">
         <v>131.6213389844608</v>
@@ -7612,7 +7612,7 @@
         <v>28.17573240056725</v>
       </c>
       <c r="Y43" t="n">
-        <v>28.17573240056725</v>
+        <v>51.35526953854027</v>
       </c>
     </row>
     <row r="44">
@@ -7631,10 +7631,10 @@
         <v>612.2013162749024</v>
       </c>
       <c r="E44" t="n">
-        <v>479.954886607501</v>
+        <v>479.9548866075007</v>
       </c>
       <c r="F44" t="n">
-        <v>315.6677119114356</v>
+        <v>315.6677119114354</v>
       </c>
       <c r="G44" t="n">
         <v>135.5955616213834</v>
@@ -7649,28 +7649,28 @@
         <v>28.17573240056726</v>
       </c>
       <c r="K44" t="n">
-        <v>28.17573240056726</v>
+        <v>261.1508868370499</v>
       </c>
       <c r="L44" t="n">
-        <v>314.8890863389091</v>
+        <v>309.7148435513919</v>
       </c>
       <c r="M44" t="n">
-        <v>397.8018051408093</v>
+        <v>630.776959577292</v>
       </c>
       <c r="N44" t="n">
-        <v>713.3630996225083</v>
+        <v>946.338254058991</v>
       </c>
       <c r="O44" t="n">
-        <v>987.7009975361875</v>
+        <v>1220.67615197267</v>
       </c>
       <c r="P44" t="n">
-        <v>1212.58887023287</v>
+        <v>1220.67615197267</v>
       </c>
       <c r="Q44" t="n">
-        <v>1331.703268597636</v>
+        <v>1371.272185187254</v>
       </c>
       <c r="R44" t="n">
-        <v>1377.653598896912</v>
+        <v>1390.82731833629</v>
       </c>
       <c r="S44" t="n">
         <v>1390.82731833629</v>
@@ -7701,22 +7701,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>371.4731721609357</v>
+        <v>541.4849794641968</v>
       </c>
       <c r="C45" t="n">
-        <v>371.4731721609357</v>
+        <v>352.0727051971605</v>
       </c>
       <c r="D45" t="n">
-        <v>371.4731721609357</v>
+        <v>352.0727051971605</v>
       </c>
       <c r="E45" t="n">
-        <v>197.9099682823501</v>
+        <v>352.0727051971605</v>
       </c>
       <c r="F45" t="n">
-        <v>178.416431657019</v>
+        <v>191.6449889144046</v>
       </c>
       <c r="G45" t="n">
-        <v>28.17573240056726</v>
+        <v>155.1197343388449</v>
       </c>
       <c r="H45" t="n">
         <v>28.17573240056726</v>
@@ -7755,22 +7755,22 @@
         <v>793.6343706203804</v>
       </c>
       <c r="T45" t="n">
-        <v>576.5177231793821</v>
+        <v>793.6343706203804</v>
       </c>
       <c r="U45" t="n">
-        <v>576.5177231793821</v>
+        <v>793.6343706203804</v>
       </c>
       <c r="V45" t="n">
-        <v>576.4227997202978</v>
+        <v>793.5394471612962</v>
       </c>
       <c r="W45" t="n">
-        <v>550.0090250878708</v>
+        <v>767.1256725288691</v>
       </c>
       <c r="X45" t="n">
-        <v>550.0090250878708</v>
+        <v>767.1256725288691</v>
       </c>
       <c r="Y45" t="n">
-        <v>550.0090250878708</v>
+        <v>541.4849794641968</v>
       </c>
     </row>
     <row r="46">
@@ -7780,58 +7780,58 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>28.17573240056726</v>
+        <v>46.62486877040692</v>
       </c>
       <c r="C46" t="n">
-        <v>28.17573240056726</v>
+        <v>109.8164644608452</v>
       </c>
       <c r="D46" t="n">
-        <v>57.5915157347906</v>
+        <v>109.8164644608452</v>
       </c>
       <c r="E46" t="n">
-        <v>57.5915157347906</v>
+        <v>109.8164644608452</v>
       </c>
       <c r="F46" t="n">
-        <v>57.5915157347906</v>
+        <v>109.8164644608452</v>
       </c>
       <c r="G46" t="n">
-        <v>57.5915157347906</v>
+        <v>109.8164644608452</v>
       </c>
       <c r="H46" t="n">
-        <v>131.6213389844609</v>
+        <v>109.8164644608452</v>
       </c>
       <c r="I46" t="n">
-        <v>131.6213389844609</v>
+        <v>109.8164644608452</v>
       </c>
       <c r="J46" t="n">
-        <v>131.6213389844609</v>
+        <v>109.8164644608452</v>
       </c>
       <c r="K46" t="n">
-        <v>131.6213389844609</v>
+        <v>109.8164644608452</v>
       </c>
       <c r="L46" t="n">
-        <v>131.6213389844609</v>
+        <v>109.8164644608452</v>
       </c>
       <c r="M46" t="n">
-        <v>131.6213389844609</v>
+        <v>109.8164644608452</v>
       </c>
       <c r="N46" t="n">
-        <v>131.6213389844609</v>
+        <v>109.8164644608452</v>
       </c>
       <c r="O46" t="n">
-        <v>131.6213389844609</v>
+        <v>109.8164644608452</v>
       </c>
       <c r="P46" t="n">
-        <v>131.6213389844609</v>
+        <v>109.8164644608452</v>
       </c>
       <c r="Q46" t="n">
-        <v>131.6213389844609</v>
+        <v>109.8164644608452</v>
       </c>
       <c r="R46" t="n">
-        <v>131.6213389844609</v>
+        <v>109.8164644608452</v>
       </c>
       <c r="S46" t="n">
-        <v>131.6213389844609</v>
+        <v>114.9734996970564</v>
       </c>
       <c r="T46" t="n">
         <v>131.6213389844609</v>
@@ -7846,10 +7846,10 @@
         <v>28.17573240056726</v>
       </c>
       <c r="X46" t="n">
-        <v>28.17573240056726</v>
+        <v>46.62486877040692</v>
       </c>
       <c r="Y46" t="n">
-        <v>28.17573240056726</v>
+        <v>46.62486877040692</v>
       </c>
     </row>
   </sheetData>
@@ -8772,19 +8772,19 @@
         <v>171.373473584151</v>
       </c>
       <c r="L12" t="n">
-        <v>219.3557975125987</v>
+        <v>219.3557975125988</v>
       </c>
       <c r="M12" t="n">
-        <v>172.2420037664609</v>
+        <v>215.6056533098496</v>
       </c>
       <c r="N12" t="n">
-        <v>200.9373406025672</v>
+        <v>101.9974341175494</v>
       </c>
       <c r="O12" t="n">
-        <v>219.6296017271815</v>
+        <v>219.6296017271816</v>
       </c>
       <c r="P12" t="n">
-        <v>120.6887073069575</v>
+        <v>176.2649642485866</v>
       </c>
       <c r="Q12" t="n">
         <v>136.1300824528302</v>
@@ -9006,22 +9006,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K15" t="n">
-        <v>171.373473584151</v>
+        <v>132.0073960199548</v>
       </c>
       <c r="L15" t="n">
-        <v>120.415891027581</v>
+        <v>219.3557975125988</v>
       </c>
       <c r="M15" t="n">
-        <v>185.5067434797568</v>
+        <v>215.6056533098496</v>
       </c>
       <c r="N15" t="n">
-        <v>200.9373406025672</v>
+        <v>200.9373406025673</v>
       </c>
       <c r="O15" t="n">
-        <v>219.6296017271815</v>
+        <v>215.6320297479889</v>
       </c>
       <c r="P15" t="n">
-        <v>206.3638740786793</v>
+        <v>120.6887073069575</v>
       </c>
       <c r="Q15" t="n">
         <v>136.1300824528302</v>
@@ -9243,13 +9243,13 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K18" t="n">
-        <v>141.2745637540582</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L18" t="n">
-        <v>219.3557975125987</v>
+        <v>219.3557975125988</v>
       </c>
       <c r="M18" t="n">
-        <v>215.6056533098496</v>
+        <v>185.506743479757</v>
       </c>
       <c r="N18" t="n">
         <v>200.9373406025672</v>
@@ -9483,19 +9483,19 @@
         <v>171.373473584151</v>
       </c>
       <c r="L21" t="n">
-        <v>120.415891027581</v>
+        <v>219.3557975125988</v>
       </c>
       <c r="M21" t="n">
-        <v>215.6056533098496</v>
+        <v>116.6657468248318</v>
       </c>
       <c r="N21" t="n">
-        <v>200.9373406025672</v>
+        <v>200.9373406025673</v>
       </c>
       <c r="O21" t="n">
-        <v>219.6296017271815</v>
+        <v>189.5306918970889</v>
       </c>
       <c r="P21" t="n">
-        <v>176.2649642485866</v>
+        <v>206.3638740786793</v>
       </c>
       <c r="Q21" t="n">
         <v>136.1300824528302</v>
@@ -9720,19 +9720,19 @@
         <v>171.373473584151</v>
       </c>
       <c r="L24" t="n">
-        <v>120.415891027581</v>
+        <v>219.3557975125988</v>
       </c>
       <c r="M24" t="n">
-        <v>215.6056533098498</v>
+        <v>215.6056533098497</v>
       </c>
       <c r="N24" t="n">
-        <v>200.9373406025674</v>
+        <v>200.9373406025673</v>
       </c>
       <c r="O24" t="n">
-        <v>189.5306918970892</v>
+        <v>120.6896952421637</v>
       </c>
       <c r="P24" t="n">
-        <v>206.3638740786793</v>
+        <v>176.2649642485866</v>
       </c>
       <c r="Q24" t="n">
         <v>136.1300824528302</v>
@@ -23255,10 +23255,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>173.7313831925514</v>
+        <v>74.79147670753363</v>
       </c>
       <c r="C11" t="n">
-        <v>149.8496401958969</v>
+        <v>149.849640195897</v>
       </c>
       <c r="D11" t="n">
         <v>137.4163024569454</v>
@@ -23267,16 +23267,16 @@
         <v>171.1230548763543</v>
       </c>
       <c r="F11" t="n">
-        <v>115.50163976519</v>
+        <v>187.5492440570836</v>
       </c>
       <c r="G11" t="n">
-        <v>119.5306118077612</v>
+        <v>119.5306118077611</v>
       </c>
       <c r="H11" t="n">
-        <v>47.60481394921717</v>
+        <v>47.60481394921715</v>
       </c>
       <c r="I11" t="n">
-        <v>40.19908950562706</v>
+        <v>40.19908950562709</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>26.89230219312424</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23315,13 +23315,13 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>120.5239264238701</v>
+        <v>120.5239264238702</v>
       </c>
       <c r="W11" t="n">
         <v>137.540606640485</v>
       </c>
       <c r="X11" t="n">
-        <v>159.4268571094242</v>
+        <v>159.4268571094243</v>
       </c>
       <c r="Y11" t="n">
         <v>181.929710233168</v>
@@ -23492,28 +23492,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>173.7313831925514</v>
+        <v>173.7313831925515</v>
       </c>
       <c r="C14" t="n">
-        <v>149.8496401958969</v>
+        <v>149.849640195897</v>
       </c>
       <c r="D14" t="n">
-        <v>90.27363927303055</v>
+        <v>38.47639597192759</v>
       </c>
       <c r="E14" t="n">
-        <v>171.1230548763542</v>
+        <v>83.97678524435064</v>
       </c>
       <c r="F14" t="n">
-        <v>202.8433924547315</v>
+        <v>103.9034859697138</v>
       </c>
       <c r="G14" t="n">
-        <v>218.4705182927789</v>
+        <v>218.470518292779</v>
       </c>
       <c r="H14" t="n">
-        <v>146.5447204342349</v>
+        <v>47.60481394921715</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>40.19908950562709</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,25 +23543,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>26.89230219312423</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>22.05838072575477</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>49.79374050860088</v>
       </c>
       <c r="V14" t="n">
-        <v>21.58401993885226</v>
+        <v>120.5239264238702</v>
       </c>
       <c r="W14" t="n">
-        <v>137.5406066404849</v>
+        <v>137.540606640485</v>
       </c>
       <c r="X14" t="n">
-        <v>159.4268571094242</v>
+        <v>159.4268571094243</v>
       </c>
       <c r="Y14" t="n">
-        <v>82.98980374815014</v>
+        <v>181.929710233168</v>
       </c>
     </row>
     <row r="15">
@@ -23744,7 +23744,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>-4.057310043492635e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>998670.4949190954</v>
+        <v>998670.4949190953</v>
       </c>
     </row>
     <row r="7">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>485062.5973470529</v>
+        <v>485062.5973470528</v>
       </c>
       <c r="C2" t="n">
         <v>485062.5973470528</v>
@@ -26320,10 +26320,10 @@
         <v>485062.5973470528</v>
       </c>
       <c r="E2" t="n">
-        <v>417994.5489612639</v>
+        <v>417994.5489612638</v>
       </c>
       <c r="F2" t="n">
-        <v>417994.5489612639</v>
+        <v>417994.5489612638</v>
       </c>
       <c r="G2" t="n">
         <v>486045.2018721945</v>
@@ -26335,25 +26335,25 @@
         <v>486045.2018721945</v>
       </c>
       <c r="J2" t="n">
-        <v>486045.2018721952</v>
+        <v>486045.2018721949</v>
       </c>
       <c r="K2" t="n">
-        <v>486045.2018721951</v>
+        <v>486045.2018721949</v>
       </c>
       <c r="L2" t="n">
-        <v>486045.201872195</v>
+        <v>486045.2018721947</v>
       </c>
       <c r="M2" t="n">
-        <v>486045.2018721947</v>
+        <v>486045.2018721948</v>
       </c>
       <c r="N2" t="n">
-        <v>486045.2018721947</v>
+        <v>486045.2018721948</v>
       </c>
       <c r="O2" t="n">
-        <v>486045.2018721949</v>
+        <v>486045.2018721948</v>
       </c>
       <c r="P2" t="n">
-        <v>486045.2018721947</v>
+        <v>486045.2018721946</v>
       </c>
     </row>
     <row r="3">
@@ -26375,10 +26375,10 @@
         <v>273465.044586805</v>
       </c>
       <c r="F3" t="n">
-        <v>6.821210263296962e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>103592.8157439611</v>
+        <v>103592.8157439612</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>158845.897335205</v>
+        <v>158845.8973352048</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,13 +26396,13 @@
         <v>103592.8157439611</v>
       </c>
       <c r="M3" t="n">
-        <v>22155.38587623623</v>
+        <v>22155.38587623637</v>
       </c>
       <c r="N3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>66695.75573252975</v>
+        <v>66695.75573252958</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26439,10 +26439,10 @@
         <v>431700.8089139007</v>
       </c>
       <c r="J4" t="n">
+        <v>430647.4817506726</v>
+      </c>
+      <c r="K4" t="n">
         <v>430647.4817506727</v>
-      </c>
-      <c r="K4" t="n">
-        <v>430647.4817506726</v>
       </c>
       <c r="L4" t="n">
         <v>430647.4817506726</v>
@@ -26451,13 +26451,13 @@
         <v>430205.641534786</v>
       </c>
       <c r="N4" t="n">
-        <v>430205.6415347859</v>
+        <v>430205.641534786</v>
       </c>
       <c r="O4" t="n">
         <v>430205.6415347859</v>
       </c>
       <c r="P4" t="n">
-        <v>430205.641534786</v>
+        <v>430205.6415347859</v>
       </c>
     </row>
     <row r="5">
@@ -26482,16 +26482,16 @@
         <v>25128.77385439977</v>
       </c>
       <c r="G5" t="n">
-        <v>36014.9543878736</v>
+        <v>36014.95438787361</v>
       </c>
       <c r="H5" t="n">
-        <v>36014.95438787359</v>
+        <v>36014.95438787361</v>
       </c>
       <c r="I5" t="n">
         <v>36014.95438787361</v>
       </c>
       <c r="J5" t="n">
-        <v>47593.60131544279</v>
+        <v>47593.60131544278</v>
       </c>
       <c r="K5" t="n">
         <v>47593.60131544279</v>
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-15818.65995598232</v>
+        <v>-15823.12634018762</v>
       </c>
       <c r="C6" t="n">
-        <v>-15818.65995598255</v>
+        <v>-15823.12634018768</v>
       </c>
       <c r="D6" t="n">
-        <v>-15818.65995598249</v>
+        <v>-15823.12634018762</v>
       </c>
       <c r="E6" t="n">
-        <v>-241781.5118806251</v>
+        <v>-242090.8330302204</v>
       </c>
       <c r="F6" t="n">
-        <v>31683.53270617974</v>
+        <v>31374.21155658467</v>
       </c>
       <c r="G6" t="n">
-        <v>-85263.37717354101</v>
+        <v>-85263.37717354108</v>
       </c>
       <c r="H6" t="n">
-        <v>18329.43857042031</v>
+        <v>18329.43857042012</v>
       </c>
       <c r="I6" t="n">
         <v>18329.43857042012</v>
       </c>
       <c r="J6" t="n">
-        <v>-151041.7785291252</v>
+        <v>-151041.7785291251</v>
       </c>
       <c r="K6" t="n">
-        <v>7804.118806079699</v>
+        <v>7804.118806079467</v>
       </c>
       <c r="L6" t="n">
-        <v>-95788.6969378815</v>
+        <v>-95788.69693788185</v>
       </c>
       <c r="M6" t="n">
-        <v>-10222.10695901792</v>
+        <v>-10222.10695901787</v>
       </c>
       <c r="N6" t="n">
-        <v>11933.27891721838</v>
+        <v>11933.27891721844</v>
       </c>
       <c r="O6" t="n">
-        <v>-54762.47681531105</v>
+        <v>-54762.47681531093</v>
       </c>
       <c r="P6" t="n">
         <v>11933.27891721833</v>
@@ -26692,22 +26692,22 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>200.3558571852819</v>
+        <v>200.3558571852818</v>
       </c>
       <c r="F2" t="n">
-        <v>200.355857185282</v>
+        <v>200.3558571852818</v>
       </c>
       <c r="G2" t="n">
         <v>329.8468768652333</v>
       </c>
       <c r="H2" t="n">
-        <v>329.8468768652332</v>
+        <v>329.8468768652333</v>
       </c>
       <c r="I2" t="n">
-        <v>329.8468768652332</v>
+        <v>329.8468768652333</v>
       </c>
       <c r="J2" t="n">
-        <v>212.8607143456136</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="K2" t="n">
         <v>212.8607143456135</v>
@@ -26796,28 +26796,28 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>98.93990648501779</v>
+        <v>98.93990648501784</v>
       </c>
       <c r="F4" t="n">
-        <v>98.93990648501779</v>
+        <v>98.93990648501784</v>
       </c>
       <c r="G4" t="n">
-        <v>98.93990648501779</v>
+        <v>98.93990648501784</v>
       </c>
       <c r="H4" t="n">
-        <v>98.93990648501779</v>
+        <v>98.93990648501784</v>
       </c>
       <c r="I4" t="n">
-        <v>98.93990648501801</v>
+        <v>98.93990648501786</v>
       </c>
       <c r="J4" t="n">
-        <v>451.1365614921083</v>
+        <v>451.1365614921082</v>
       </c>
       <c r="K4" t="n">
-        <v>451.1365614921083</v>
+        <v>451.1365614921084</v>
       </c>
       <c r="L4" t="n">
-        <v>451.1365614921083</v>
+        <v>451.1365614921084</v>
       </c>
       <c r="M4" t="n">
         <v>352.1966550070906</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>200.3558571852819</v>
+        <v>200.3558571852818</v>
       </c>
       <c r="F2" t="n">
-        <v>8.526512829121202e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>129.4910196799513</v>
+        <v>129.4910196799514</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>83.36969466566228</v>
+        <v>83.36969466566205</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>129.4910196799513</v>
+        <v>129.4910196799514</v>
       </c>
       <c r="M2" t="n">
-        <v>27.69423234529529</v>
+        <v>27.69423234529546</v>
       </c>
       <c r="N2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>83.36969466566219</v>
+        <v>83.36969466566197</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>98.93990648501779</v>
+        <v>98.93990648501784</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>200.3558571852819</v>
+        <v>200.3558571852818</v>
       </c>
       <c r="K2" t="n">
-        <v>8.526512829121202e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>129.4910196799513</v>
+        <v>129.4910196799514</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>83.36969466566228</v>
+        <v>83.36969466566205</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>98.93990648501779</v>
+        <v>98.93990648501784</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>200.3558571852819</v>
+        <v>200.3558571852818</v>
       </c>
       <c r="C11" t="n">
-        <v>200.3558571852819</v>
+        <v>200.3558571852818</v>
       </c>
       <c r="D11" t="n">
-        <v>200.3558571852819</v>
+        <v>200.3558571852818</v>
       </c>
       <c r="E11" t="n">
-        <v>200.3558571852819</v>
+        <v>200.3558571852818</v>
       </c>
       <c r="F11" t="n">
-        <v>200.3558571852819</v>
+        <v>200.3558571852818</v>
       </c>
       <c r="G11" t="n">
-        <v>200.3558571852819</v>
+        <v>200.3558571852818</v>
       </c>
       <c r="H11" t="n">
-        <v>200.3558571852819</v>
+        <v>200.3558571852818</v>
       </c>
       <c r="I11" t="n">
-        <v>200.3558571852819</v>
+        <v>200.3558571852818</v>
       </c>
       <c r="J11" t="n">
         <v>75.78032220706919</v>
@@ -28117,7 +28117,7 @@
         <v>5.22650786617897</v>
       </c>
       <c r="L11" t="n">
-        <v>39.05416247351077</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -28126,37 +28126,37 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>62.38586538433151</v>
       </c>
       <c r="P11" t="n">
-        <v>13.3954793205225</v>
+        <v>95.21906843886666</v>
       </c>
       <c r="Q11" t="n">
-        <v>187.3776479086703</v>
+        <v>88.43774142365254</v>
       </c>
       <c r="R11" t="n">
-        <v>200.3558571852819</v>
+        <v>194.140471641135</v>
       </c>
       <c r="S11" t="n">
-        <v>200.3558571852819</v>
+        <v>200.3558571852818</v>
       </c>
       <c r="T11" t="n">
-        <v>200.3558571852819</v>
+        <v>200.3558571852818</v>
       </c>
       <c r="U11" t="n">
-        <v>200.3558571852819</v>
+        <v>200.3558571852818</v>
       </c>
       <c r="V11" t="n">
-        <v>200.3558571852819</v>
+        <v>200.3558571852818</v>
       </c>
       <c r="W11" t="n">
-        <v>200.3558571852819</v>
+        <v>200.3558571852818</v>
       </c>
       <c r="X11" t="n">
-        <v>200.3558571852819</v>
+        <v>200.3558571852818</v>
       </c>
       <c r="Y11" t="n">
-        <v>200.3558571852819</v>
+        <v>200.3558571852818</v>
       </c>
     </row>
     <row r="12">
@@ -28172,16 +28172,16 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D12" t="n">
-        <v>159.1723150765785</v>
+        <v>72.23492961521275</v>
       </c>
       <c r="E12" t="n">
-        <v>72.88766535478189</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F12" t="n">
         <v>158.8234391199283</v>
       </c>
       <c r="G12" t="n">
-        <v>148.7382922638873</v>
+        <v>49.79838577886945</v>
       </c>
       <c r="H12" t="n">
         <v>125.6745619188949</v>
@@ -28220,22 +28220,22 @@
         <v>191.4735447740309</v>
       </c>
       <c r="T12" t="n">
-        <v>146.0096518172042</v>
+        <v>200.3558571852818</v>
       </c>
       <c r="U12" t="n">
-        <v>200.3558571852819</v>
+        <v>200.3558571852818</v>
       </c>
       <c r="V12" t="n">
-        <v>200.3558571852819</v>
+        <v>200.3558571852818</v>
       </c>
       <c r="W12" t="n">
-        <v>167.7646770919938</v>
+        <v>200.3558571852818</v>
       </c>
       <c r="X12" t="n">
-        <v>200.3558571852819</v>
+        <v>200.3558571852818</v>
       </c>
       <c r="Y12" t="n">
-        <v>200.3558571852819</v>
+        <v>200.3558571852818</v>
       </c>
     </row>
     <row r="13">
@@ -28266,55 +28266,55 @@
         <v>165.7773474488177</v>
       </c>
       <c r="I13" t="n">
-        <v>196.9901598410134</v>
+        <v>164.6938248359117</v>
       </c>
       <c r="J13" t="n">
         <v>119.8654670400798</v>
       </c>
       <c r="K13" t="n">
-        <v>66.41515229588839</v>
+        <v>98.71148730099006</v>
       </c>
       <c r="L13" t="n">
-        <v>130.3049547715884</v>
+        <v>31.36504828657058</v>
       </c>
       <c r="M13" t="n">
         <v>24.38732889638568</v>
       </c>
       <c r="N13" t="n">
-        <v>114.6502518757157</v>
+        <v>114.6502518757158</v>
       </c>
       <c r="O13" t="n">
-        <v>135.6707980487059</v>
+        <v>135.670798048706</v>
       </c>
       <c r="P13" t="n">
-        <v>57.83856215320002</v>
+        <v>156.7784686382179</v>
       </c>
       <c r="Q13" t="n">
         <v>126.7738576957197</v>
       </c>
       <c r="R13" t="n">
-        <v>200.3558571852819</v>
+        <v>200.3558571852818</v>
       </c>
       <c r="S13" t="n">
-        <v>200.3558571852819</v>
+        <v>200.3558571852818</v>
       </c>
       <c r="T13" t="n">
-        <v>200.3558571852819</v>
+        <v>200.3558571852818</v>
       </c>
       <c r="U13" t="n">
-        <v>200.3558571852819</v>
+        <v>200.3558571852818</v>
       </c>
       <c r="V13" t="n">
-        <v>200.3558571852819</v>
+        <v>200.3558571852818</v>
       </c>
       <c r="W13" t="n">
-        <v>200.3558571852819</v>
+        <v>200.3558571852818</v>
       </c>
       <c r="X13" t="n">
-        <v>200.3558571852819</v>
+        <v>200.3558571852818</v>
       </c>
       <c r="Y13" t="n">
-        <v>200.3558571852819</v>
+        <v>200.3558571852818</v>
       </c>
     </row>
     <row r="14">
@@ -28324,34 +28324,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>200.355857185282</v>
+        <v>200.3558571852818</v>
       </c>
       <c r="C14" t="n">
-        <v>200.355857185282</v>
+        <v>200.3558571852818</v>
       </c>
       <c r="D14" t="n">
-        <v>200.355857185282</v>
+        <v>200.3558571852818</v>
       </c>
       <c r="E14" t="n">
-        <v>200.355857185282</v>
+        <v>200.3558571852818</v>
       </c>
       <c r="F14" t="n">
-        <v>200.355857185282</v>
+        <v>200.3558571852818</v>
       </c>
       <c r="G14" t="n">
-        <v>200.355857185282</v>
+        <v>200.3558571852818</v>
       </c>
       <c r="H14" t="n">
-        <v>200.355857185282</v>
+        <v>200.3558571852818</v>
       </c>
       <c r="I14" t="n">
-        <v>200.355857185282</v>
+        <v>200.3558571852818</v>
       </c>
       <c r="J14" t="n">
-        <v>174.720228692087</v>
+        <v>75.78032220706919</v>
       </c>
       <c r="K14" t="n">
-        <v>29.74998501265648</v>
+        <v>5.22650786617897</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -28360,40 +28360,40 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>20.74607087118012</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>62.38586538433151</v>
       </c>
       <c r="P14" t="n">
         <v>13.3954793205225</v>
       </c>
       <c r="Q14" t="n">
-        <v>88.43774142365254</v>
+        <v>170.2613305419967</v>
       </c>
       <c r="R14" t="n">
         <v>194.140471641135</v>
       </c>
       <c r="S14" t="n">
-        <v>200.355857185282</v>
+        <v>200.3558571852818</v>
       </c>
       <c r="T14" t="n">
-        <v>200.355857185282</v>
+        <v>200.3558571852818</v>
       </c>
       <c r="U14" t="n">
-        <v>200.355857185282</v>
+        <v>200.3558571852818</v>
       </c>
       <c r="V14" t="n">
-        <v>200.355857185282</v>
+        <v>200.3558571852818</v>
       </c>
       <c r="W14" t="n">
-        <v>200.355857185282</v>
+        <v>200.3558571852818</v>
       </c>
       <c r="X14" t="n">
-        <v>200.355857185282</v>
+        <v>200.3558571852818</v>
       </c>
       <c r="Y14" t="n">
-        <v>200.355857185282</v>
+        <v>200.3558571852818</v>
       </c>
     </row>
     <row r="15">
@@ -28403,10 +28403,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>122.4042890295876</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C15" t="n">
-        <v>88.57824503934813</v>
+        <v>133.1719461562882</v>
       </c>
       <c r="D15" t="n">
         <v>159.1723150765785</v>
@@ -28451,28 +28451,28 @@
         <v>6.063707710285872</v>
       </c>
       <c r="R15" t="n">
-        <v>134.3278900205298</v>
+        <v>35.38798353551195</v>
       </c>
       <c r="S15" t="n">
         <v>191.4735447740309</v>
       </c>
       <c r="T15" t="n">
-        <v>200.355857185282</v>
+        <v>200.3558571852818</v>
       </c>
       <c r="U15" t="n">
-        <v>200.355857185282</v>
+        <v>200.3558571852818</v>
       </c>
       <c r="V15" t="n">
-        <v>200.355857185282</v>
+        <v>200.3558571852818</v>
       </c>
       <c r="W15" t="n">
-        <v>167.7646770919938</v>
+        <v>167.7646770919937</v>
       </c>
       <c r="X15" t="n">
-        <v>200.355857185282</v>
+        <v>200.3558571852818</v>
       </c>
       <c r="Y15" t="n">
-        <v>200.355857185282</v>
+        <v>200.3558571852818</v>
       </c>
     </row>
     <row r="16">
@@ -28482,7 +28482,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>200.355857185282</v>
+        <v>200.3558571852818</v>
       </c>
       <c r="C16" t="n">
         <v>166.4571809719723</v>
@@ -28494,10 +28494,10 @@
         <v>141.676141212225</v>
       </c>
       <c r="F16" t="n">
-        <v>142.1818134951166</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G16" t="n">
-        <v>200.355857185282</v>
+        <v>168.6954829817093</v>
       </c>
       <c r="H16" t="n">
         <v>165.7773474488177</v>
@@ -28509,49 +28509,49 @@
         <v>119.8654670400798</v>
       </c>
       <c r="K16" t="n">
-        <v>165.3550587809062</v>
+        <v>66.41515229588839</v>
       </c>
       <c r="L16" t="n">
-        <v>130.3049547715884</v>
+        <v>31.36504828657058</v>
       </c>
       <c r="M16" t="n">
-        <v>24.38732889638568</v>
+        <v>123.3272353814035</v>
       </c>
       <c r="N16" t="n">
         <v>15.71034539069796</v>
       </c>
       <c r="O16" t="n">
-        <v>36.73089156368813</v>
+        <v>135.670798048706</v>
       </c>
       <c r="P16" t="n">
-        <v>57.83856215320002</v>
+        <v>92.7538676334436</v>
       </c>
       <c r="Q16" t="n">
-        <v>200.355857185282</v>
+        <v>200.3558571852818</v>
       </c>
       <c r="R16" t="n">
-        <v>200.355857185282</v>
+        <v>200.3558571852818</v>
       </c>
       <c r="S16" t="n">
-        <v>200.355857185282</v>
+        <v>200.3558571852818</v>
       </c>
       <c r="T16" t="n">
-        <v>200.355857185282</v>
+        <v>200.3558571852818</v>
       </c>
       <c r="U16" t="n">
-        <v>200.355857185282</v>
+        <v>200.3558571852818</v>
       </c>
       <c r="V16" t="n">
-        <v>200.355857185282</v>
+        <v>200.3558571852818</v>
       </c>
       <c r="W16" t="n">
-        <v>200.355857185282</v>
+        <v>200.3558571852818</v>
       </c>
       <c r="X16" t="n">
-        <v>200.355857185282</v>
+        <v>200.3558571852818</v>
       </c>
       <c r="Y16" t="n">
-        <v>200.355857185282</v>
+        <v>200.3558571852818</v>
       </c>
     </row>
     <row r="17">
@@ -28600,7 +28600,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>62.38586538433145</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>13.3954793205225</v>
@@ -28612,16 +28612,16 @@
         <v>194.140471641135</v>
       </c>
       <c r="S17" t="n">
-        <v>227.2481593784061</v>
+        <v>291.7603347097312</v>
       </c>
       <c r="T17" t="n">
         <v>222.4142379110366</v>
       </c>
       <c r="U17" t="n">
-        <v>323.0060935561454</v>
+        <v>329.8468768652333</v>
       </c>
       <c r="V17" t="n">
-        <v>329.8468768652333</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W17" t="n">
         <v>329.8468768652333</v>
@@ -28646,16 +28646,16 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D18" t="n">
-        <v>60.23240859156076</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E18" t="n">
         <v>171.8275718397997</v>
       </c>
       <c r="F18" t="n">
-        <v>59.88353263491055</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G18" t="n">
-        <v>61.59202263188368</v>
+        <v>61.59202263188358</v>
       </c>
       <c r="H18" t="n">
         <v>125.6745619188949</v>
@@ -28688,10 +28688,10 @@
         <v>6.063707710285872</v>
       </c>
       <c r="R18" t="n">
-        <v>134.3278900205298</v>
+        <v>35.38798353551195</v>
       </c>
       <c r="S18" t="n">
-        <v>191.4735447740309</v>
+        <v>92.53363828901301</v>
       </c>
       <c r="T18" t="n">
         <v>214.9454809665884</v>
@@ -28703,7 +28703,7 @@
         <v>240.6489209154022</v>
       </c>
       <c r="W18" t="n">
-        <v>167.7646770919938</v>
+        <v>167.7646770919937</v>
       </c>
       <c r="X18" t="n">
         <v>217.3129144394706</v>
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>329.8468768652332</v>
+        <v>329.8468768652333</v>
       </c>
       <c r="C20" t="n">
-        <v>329.8468768652332</v>
+        <v>329.8468768652333</v>
       </c>
       <c r="D20" t="n">
-        <v>329.8468768652332</v>
+        <v>329.8468768652333</v>
       </c>
       <c r="E20" t="n">
-        <v>329.8468768652332</v>
+        <v>329.8468768652333</v>
       </c>
       <c r="F20" t="n">
-        <v>329.8468768652332</v>
+        <v>329.8468768652333</v>
       </c>
       <c r="G20" t="n">
-        <v>329.8468768652332</v>
+        <v>329.8468768652333</v>
       </c>
       <c r="H20" t="n">
-        <v>329.8468768652332</v>
+        <v>329.8468768652333</v>
       </c>
       <c r="I20" t="n">
         <v>240.5549466909089</v>
@@ -28849,7 +28849,7 @@
         <v>194.140471641135</v>
       </c>
       <c r="S20" t="n">
-        <v>326.1880658634238</v>
+        <v>326.188065863424</v>
       </c>
       <c r="T20" t="n">
         <v>258.7166926726131</v>
@@ -28858,16 +28858,16 @@
         <v>250.1495976938827</v>
       </c>
       <c r="V20" t="n">
-        <v>329.8468768652332</v>
+        <v>329.8468768652333</v>
       </c>
       <c r="W20" t="n">
-        <v>329.8468768652332</v>
+        <v>329.8468768652333</v>
       </c>
       <c r="X20" t="n">
-        <v>329.8468768652332</v>
+        <v>329.8468768652333</v>
       </c>
       <c r="Y20" t="n">
-        <v>329.8468768652332</v>
+        <v>329.8468768652333</v>
       </c>
     </row>
     <row r="21">
@@ -28880,13 +28880,13 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C21" t="n">
-        <v>100.3718818923623</v>
+        <v>88.57824503934808</v>
       </c>
       <c r="D21" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E21" t="n">
-        <v>171.8275718397997</v>
+        <v>72.88766535478183</v>
       </c>
       <c r="F21" t="n">
         <v>158.8234391199283</v>
@@ -28895,7 +28895,7 @@
         <v>148.7382922638873</v>
       </c>
       <c r="H21" t="n">
-        <v>26.73465543387711</v>
+        <v>125.6745619188949</v>
       </c>
       <c r="I21" t="n">
         <v>107.1460820356304</v>
@@ -28928,25 +28928,25 @@
         <v>134.3278900205298</v>
       </c>
       <c r="S21" t="n">
-        <v>92.53363828901307</v>
+        <v>191.4735447740309</v>
       </c>
       <c r="T21" t="n">
         <v>214.9454809665884</v>
       </c>
       <c r="U21" t="n">
-        <v>138.2877477348485</v>
+        <v>237.2276542198663</v>
       </c>
       <c r="V21" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W21" t="n">
-        <v>266.7045835770116</v>
+        <v>179.5583139450079</v>
       </c>
       <c r="X21" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y21" t="n">
-        <v>223.3842861340256</v>
+        <v>124.4443796490078</v>
       </c>
     </row>
     <row r="22">
@@ -29035,31 +29035,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>329.8468768652332</v>
+        <v>329.8468768652333</v>
       </c>
       <c r="C23" t="n">
-        <v>329.8468768652332</v>
+        <v>329.8468768652333</v>
       </c>
       <c r="D23" t="n">
-        <v>329.8468768652332</v>
+        <v>329.8468768652333</v>
       </c>
       <c r="E23" t="n">
-        <v>329.8468768652332</v>
+        <v>329.8468768652333</v>
       </c>
       <c r="F23" t="n">
-        <v>329.8468768652332</v>
+        <v>329.8468768652333</v>
       </c>
       <c r="G23" t="n">
-        <v>329.8468768652332</v>
+        <v>329.8468768652333</v>
       </c>
       <c r="H23" t="n">
-        <v>329.8468768652332</v>
+        <v>329.8468768652333</v>
       </c>
       <c r="I23" t="n">
         <v>240.5549466909089</v>
       </c>
       <c r="J23" t="n">
-        <v>75.78032220706919</v>
+        <v>121.049870224727</v>
       </c>
       <c r="K23" t="n">
         <v>5.22650786617897</v>
@@ -29086,25 +29086,25 @@
         <v>194.140471641135</v>
       </c>
       <c r="S23" t="n">
-        <v>282.7932414536508</v>
+        <v>227.2481593784061</v>
       </c>
       <c r="T23" t="n">
-        <v>222.4142379110366</v>
+        <v>321.3541443960545</v>
       </c>
       <c r="U23" t="n">
-        <v>329.8468768652332</v>
+        <v>250.1495976938827</v>
       </c>
       <c r="V23" t="n">
-        <v>329.8468768652332</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W23" t="n">
-        <v>329.8468768652332</v>
+        <v>329.8468768652333</v>
       </c>
       <c r="X23" t="n">
-        <v>329.8468768652332</v>
+        <v>329.8468768652333</v>
       </c>
       <c r="Y23" t="n">
-        <v>329.8468768652332</v>
+        <v>329.8468768652333</v>
       </c>
     </row>
     <row r="24">
@@ -29117,13 +29117,13 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C24" t="n">
-        <v>100.3718818923621</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D24" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E24" t="n">
-        <v>72.88766535478166</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F24" t="n">
         <v>158.8234391199283</v>
@@ -29132,7 +29132,7 @@
         <v>148.7382922638873</v>
       </c>
       <c r="H24" t="n">
-        <v>125.6745619188949</v>
+        <v>26.73465543387704</v>
       </c>
       <c r="I24" t="n">
         <v>107.1460820356304</v>
@@ -29162,22 +29162,22 @@
         <v>6.063707710285872</v>
       </c>
       <c r="R24" t="n">
-        <v>134.3278900205298</v>
+        <v>35.38798353551194</v>
       </c>
       <c r="S24" t="n">
-        <v>191.4735447740309</v>
+        <v>104.3272751420272</v>
       </c>
       <c r="T24" t="n">
         <v>214.9454809665884</v>
       </c>
       <c r="U24" t="n">
-        <v>138.2877477348483</v>
+        <v>138.2877477348484</v>
       </c>
       <c r="V24" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W24" t="n">
-        <v>167.7646770919936</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X24" t="n">
         <v>217.3129144394706</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>212.8607143456136</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="C26" t="n">
-        <v>212.8607143456136</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="D26" t="n">
-        <v>212.8607143456136</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="E26" t="n">
-        <v>212.8607143456136</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="F26" t="n">
-        <v>212.8607143456136</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="G26" t="n">
-        <v>212.8607143456136</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="H26" t="n">
-        <v>212.8607143456136</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="I26" t="n">
-        <v>212.8607143456136</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="J26" t="n">
-        <v>212.8607143456136</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="K26" t="n">
-        <v>212.8607143456136</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="L26" t="n">
-        <v>212.8607143456136</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="M26" t="n">
-        <v>212.8607143456136</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="N26" t="n">
-        <v>212.8607143456136</v>
+        <v>212.8607143456126</v>
       </c>
       <c r="O26" t="n">
-        <v>212.8607143456136</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="P26" t="n">
-        <v>212.8607143456136</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.8607143456136</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="R26" t="n">
-        <v>212.8607143456136</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="S26" t="n">
-        <v>212.8607143456136</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="T26" t="n">
-        <v>212.8607143456136</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="U26" t="n">
-        <v>212.8607143456136</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="V26" t="n">
-        <v>212.8607143456136</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="W26" t="n">
-        <v>212.8607143456136</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="X26" t="n">
-        <v>212.8607143456136</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="Y26" t="n">
-        <v>212.8607143456136</v>
+        <v>212.8607143456135</v>
       </c>
     </row>
     <row r="27">
@@ -29351,22 +29351,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C27" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E27" t="n">
-        <v>171.8275718397997</v>
+        <v>148.1641840654664</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>62.42844246816306</v>
+        <v>148.7382922638873</v>
       </c>
       <c r="H27" t="n">
         <v>125.6745619188949</v>
@@ -29375,7 +29375,7 @@
         <v>107.1460820356304</v>
       </c>
       <c r="J27" t="n">
-        <v>51.87880489469029</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -29405,22 +29405,22 @@
         <v>191.4735447740309</v>
       </c>
       <c r="T27" t="n">
-        <v>212.8607143456136</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>212.8607143456136</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="W27" t="n">
-        <v>212.8607143456136</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="X27" t="n">
-        <v>212.8607143456136</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="Y27" t="n">
-        <v>212.8607143456136</v>
+        <v>212.8607143456135</v>
       </c>
     </row>
     <row r="28">
@@ -29430,7 +29430,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>212.8607143456136</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C28" t="n">
         <v>166.4571809719723</v>
@@ -29448,13 +29448,13 @@
         <v>168.6954829817093</v>
       </c>
       <c r="H28" t="n">
-        <v>212.8607143456136</v>
+        <v>165.7773474488177</v>
       </c>
       <c r="I28" t="n">
         <v>164.6938248359117</v>
       </c>
       <c r="J28" t="n">
-        <v>119.8654670400798</v>
+        <v>159.626113281864</v>
       </c>
       <c r="K28" t="n">
         <v>66.41515229588839</v>
@@ -29466,10 +29466,10 @@
         <v>24.38732889638568</v>
       </c>
       <c r="N28" t="n">
-        <v>15.71034539069796</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="O28" t="n">
-        <v>191.3147461829458</v>
+        <v>36.73089156368813</v>
       </c>
       <c r="P28" t="n">
         <v>57.83856215320002</v>
@@ -29481,25 +29481,25 @@
         <v>203.1920160450731</v>
       </c>
       <c r="S28" t="n">
-        <v>212.8607143456136</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="T28" t="n">
-        <v>212.8607143456136</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="U28" t="n">
-        <v>212.8607143456136</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="V28" t="n">
-        <v>212.8607143456136</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="W28" t="n">
-        <v>212.8607143456136</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="X28" t="n">
-        <v>212.8607143456136</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="Y28" t="n">
-        <v>212.8607143456136</v>
+        <v>212.8607143456135</v>
       </c>
     </row>
     <row r="29">
@@ -29594,25 +29594,25 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D30" t="n">
-        <v>98.88753837276155</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E30" t="n">
-        <v>171.8275718397997</v>
+        <v>118.970700114098</v>
       </c>
       <c r="F30" t="n">
         <v>158.8234391199283</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>148.7382922638873</v>
       </c>
       <c r="H30" t="n">
-        <v>125.6745619188949</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>107.1460820356304</v>
       </c>
       <c r="J30" t="n">
-        <v>51.87880489469029</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -29639,7 +29639,7 @@
         <v>134.3278900205298</v>
       </c>
       <c r="S30" t="n">
-        <v>191.4735447740309</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>212.8607143456135</v>
@@ -29648,7 +29648,7 @@
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="W30" t="n">
         <v>212.8607143456135</v>
@@ -29688,7 +29688,7 @@
         <v>165.7773474488177</v>
       </c>
       <c r="I31" t="n">
-        <v>212.8607143456135</v>
+        <v>164.6938248359117</v>
       </c>
       <c r="J31" t="n">
         <v>119.8654670400798</v>
@@ -29697,16 +29697,16 @@
         <v>66.41515229588839</v>
       </c>
       <c r="L31" t="n">
-        <v>212.8607143456135</v>
+        <v>31.36504828657058</v>
       </c>
       <c r="M31" t="n">
         <v>24.38732889638568</v>
       </c>
       <c r="N31" t="n">
-        <v>22.95880501865293</v>
+        <v>76.49153780547225</v>
       </c>
       <c r="O31" t="n">
-        <v>36.73089156368813</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="P31" t="n">
         <v>57.83856215320002</v>
@@ -29773,7 +29773,7 @@
         <v>212.8607143456135</v>
       </c>
       <c r="K32" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456137</v>
       </c>
       <c r="L32" t="n">
         <v>212.8607143456135</v>
@@ -29837,7 +29837,7 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G33" t="n">
         <v>148.7382922638873</v>
@@ -29876,16 +29876,16 @@
         <v>134.3278900205298</v>
       </c>
       <c r="S33" t="n">
-        <v>191.4735447740309</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>212.8607143456135</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="V33" t="n">
-        <v>137.3185216765899</v>
+        <v>169.9686273306926</v>
       </c>
       <c r="W33" t="n">
         <v>212.8607143456135</v>
@@ -29894,7 +29894,7 @@
         <v>212.8607143456135</v>
       </c>
       <c r="Y33" t="n">
-        <v>212.8607143456135</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -29907,7 +29907,7 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C34" t="n">
-        <v>166.4571809719723</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="D34" t="n">
         <v>145.1826502507107</v>
@@ -29916,28 +29916,28 @@
         <v>141.676141212225</v>
       </c>
       <c r="F34" t="n">
-        <v>138.9268822184467</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="G34" t="n">
         <v>168.6954829817093</v>
       </c>
       <c r="H34" t="n">
-        <v>212.8607143456135</v>
+        <v>165.7773474488177</v>
       </c>
       <c r="I34" t="n">
-        <v>212.8607143456135</v>
+        <v>164.6938248359117</v>
       </c>
       <c r="J34" t="n">
         <v>119.8654670400798</v>
       </c>
       <c r="K34" t="n">
-        <v>208.0759110860905</v>
+        <v>66.41515229588839</v>
       </c>
       <c r="L34" t="n">
         <v>31.36504828657058</v>
       </c>
       <c r="M34" t="n">
-        <v>24.38732889638568</v>
+        <v>140.9609785922776</v>
       </c>
       <c r="N34" t="n">
         <v>15.71034539069796</v>
@@ -30010,7 +30010,7 @@
         <v>240.5549466909089</v>
       </c>
       <c r="K35" t="n">
-        <v>240.5549466909089</v>
+        <v>5.22650786617897</v>
       </c>
       <c r="L35" t="n">
         <v>240.5549466909089</v>
@@ -30019,25 +30019,25 @@
         <v>240.5549466909089</v>
       </c>
       <c r="N35" t="n">
-        <v>25.23594930978845</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
+        <v>43.98069104563547</v>
+      </c>
+      <c r="P35" t="n">
         <v>240.5549466909089</v>
       </c>
-      <c r="P35" t="n">
-        <v>13.3954793205225</v>
-      </c>
       <c r="Q35" t="n">
-        <v>88.43774142365254</v>
+        <v>240.5549466909089</v>
       </c>
       <c r="R35" t="n">
-        <v>194.140471641135</v>
+        <v>240.5549466909089</v>
       </c>
       <c r="S35" t="n">
-        <v>227.2481593784061</v>
+        <v>240.5549466909089</v>
       </c>
       <c r="T35" t="n">
-        <v>222.4142379110366</v>
+        <v>240.5549466909089</v>
       </c>
       <c r="U35" t="n">
         <v>240.5549466909089</v>
@@ -30065,10 +30065,10 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C36" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E36" t="n">
         <v>171.8275718397997</v>
@@ -30077,16 +30077,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G36" t="n">
-        <v>36.96210696733868</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>125.6745619188949</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>107.1460820356304</v>
       </c>
       <c r="J36" t="n">
-        <v>51.87880489469029</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -30107,7 +30107,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>6.063707710285872</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>134.3278900205298</v>
@@ -30119,10 +30119,10 @@
         <v>214.9454809665884</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>237.2276542198663</v>
       </c>
       <c r="V36" t="n">
-        <v>240.5549466909089</v>
+        <v>28.86802427601413</v>
       </c>
       <c r="W36" t="n">
         <v>240.5549466909089</v>
@@ -30131,7 +30131,7 @@
         <v>217.3129144394706</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="37">
@@ -30150,10 +30150,10 @@
         <v>145.1826502507107</v>
       </c>
       <c r="E37" t="n">
-        <v>141.676141212225</v>
+        <v>240.5549466909089</v>
       </c>
       <c r="F37" t="n">
-        <v>138.9268822184467</v>
+        <v>144.5385884406651</v>
       </c>
       <c r="G37" t="n">
         <v>168.6954829817093</v>
@@ -30165,7 +30165,7 @@
         <v>164.6938248359117</v>
       </c>
       <c r="J37" t="n">
-        <v>224.3559787409823</v>
+        <v>119.8654670400798</v>
       </c>
       <c r="K37" t="n">
         <v>66.41515229588839</v>
@@ -30244,19 +30244,19 @@
         <v>240.5549466909089</v>
       </c>
       <c r="J38" t="n">
-        <v>75.78032220706919</v>
+        <v>240.5549466909089</v>
       </c>
       <c r="K38" t="n">
-        <v>5.22650786617897</v>
+        <v>240.5549466909089</v>
       </c>
       <c r="L38" t="n">
-        <v>208.7553155294753</v>
+        <v>95.62167396158878</v>
       </c>
       <c r="M38" t="n">
         <v>240.5549466909089</v>
       </c>
       <c r="N38" t="n">
-        <v>240.5549466909089</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -30268,7 +30268,7 @@
         <v>240.5549466909089</v>
       </c>
       <c r="R38" t="n">
-        <v>240.5549466909089</v>
+        <v>194.140471641135</v>
       </c>
       <c r="S38" t="n">
         <v>240.5549466909089</v>
@@ -30299,25 +30299,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C39" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>171.8275718397997</v>
+        <v>169.165322967679</v>
       </c>
       <c r="F39" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>148.7382922638873</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>125.6745619188949</v>
       </c>
       <c r="I39" t="n">
         <v>107.1460820356304</v>
@@ -30353,7 +30353,7 @@
         <v>191.4735447740309</v>
       </c>
       <c r="T39" t="n">
-        <v>151.8613032594878</v>
+        <v>214.9454809665884</v>
       </c>
       <c r="U39" t="n">
         <v>237.2276542198663</v>
@@ -30365,10 +30365,10 @@
         <v>240.5549466909089</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y39" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -30378,7 +30378,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>240.5549466909089</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C40" t="n">
         <v>166.4571809719723</v>
@@ -30387,7 +30387,7 @@
         <v>145.1826502507107</v>
       </c>
       <c r="E40" t="n">
-        <v>141.676141212225</v>
+        <v>208.8037222672916</v>
       </c>
       <c r="F40" t="n">
         <v>138.9268822184467</v>
@@ -30396,7 +30396,7 @@
         <v>168.6954829817093</v>
       </c>
       <c r="H40" t="n">
-        <v>207.3298331237792</v>
+        <v>165.7773474488177</v>
       </c>
       <c r="I40" t="n">
         <v>164.6938248359117</v>
@@ -30426,7 +30426,7 @@
         <v>126.7738576957197</v>
       </c>
       <c r="R40" t="n">
-        <v>203.1920160450731</v>
+        <v>240.5549466909089</v>
       </c>
       <c r="S40" t="n">
         <v>235.3458201896853</v>
@@ -30484,28 +30484,28 @@
         <v>240.5549466909088</v>
       </c>
       <c r="K41" t="n">
-        <v>5.22650786617897</v>
+        <v>240.5549466909088</v>
       </c>
       <c r="L41" t="n">
-        <v>240.5549466909088</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>240.5549466909088</v>
       </c>
       <c r="N41" t="n">
-        <v>30.58521172511371</v>
+        <v>240.5549466909088</v>
       </c>
       <c r="O41" t="n">
-        <v>240.5549466909088</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>13.3954793205225</v>
+        <v>95.62167396158878</v>
       </c>
       <c r="Q41" t="n">
         <v>240.5549466909088</v>
       </c>
       <c r="R41" t="n">
-        <v>240.5549466909088</v>
+        <v>194.140471641135</v>
       </c>
       <c r="S41" t="n">
         <v>240.5549466909088</v>
@@ -30542,7 +30542,7 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E42" t="n">
         <v>171.8275718397997</v>
@@ -30554,13 +30554,13 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>125.6745619188949</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>107.1460820356304</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>51.87880489469029</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -30584,10 +30584,10 @@
         <v>6.063707710285872</v>
       </c>
       <c r="R42" t="n">
-        <v>134.3278900205298</v>
+        <v>27.67873518064467</v>
       </c>
       <c r="S42" t="n">
-        <v>191.4735447740309</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>214.9454809665884</v>
@@ -30596,10 +30596,10 @@
         <v>237.2276542198663</v>
       </c>
       <c r="V42" t="n">
-        <v>57.4600599952646</v>
+        <v>240.5549466909088</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>240.5549466909088</v>
       </c>
       <c r="X42" t="n">
         <v>217.3129144394706</v>
@@ -30618,13 +30618,13 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C43" t="n">
-        <v>166.4571809719723</v>
+        <v>240.5549466909088</v>
       </c>
       <c r="D43" t="n">
-        <v>145.1826502507107</v>
+        <v>152.1617223559364</v>
       </c>
       <c r="E43" t="n">
-        <v>203.5945957660684</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F43" t="n">
         <v>138.9268822184467</v>
@@ -30663,10 +30663,10 @@
         <v>126.7738576957197</v>
       </c>
       <c r="R43" t="n">
-        <v>240.5549466909088</v>
+        <v>203.1920160450731</v>
       </c>
       <c r="S43" t="n">
-        <v>240.5549466909088</v>
+        <v>235.3458201896853</v>
       </c>
       <c r="T43" t="n">
         <v>223.7389474107024</v>
@@ -30684,7 +30684,7 @@
         <v>221.9194554082425</v>
       </c>
       <c r="Y43" t="n">
-        <v>217.1412728141684</v>
+        <v>240.5549466909088</v>
       </c>
     </row>
     <row r="44">
@@ -30721,13 +30721,13 @@
         <v>75.78032220706919</v>
       </c>
       <c r="K44" t="n">
-        <v>5.22650786617897</v>
+        <v>240.5549466909088</v>
       </c>
       <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
         <v>240.5549466909088</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>240.5549466909088</v>
@@ -30736,16 +30736,16 @@
         <v>240.5549466909088</v>
       </c>
       <c r="P44" t="n">
+        <v>13.3954793205225</v>
+      </c>
+      <c r="Q44" t="n">
         <v>240.5549466909088</v>
       </c>
-      <c r="Q44" t="n">
-        <v>208.7553155294768</v>
-      </c>
       <c r="R44" t="n">
-        <v>240.5549466909088</v>
+        <v>213.8931313876358</v>
       </c>
       <c r="S44" t="n">
-        <v>240.5549466909088</v>
+        <v>227.2481593784061</v>
       </c>
       <c r="T44" t="n">
         <v>240.5549466909088</v>
@@ -30773,25 +30773,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C45" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F45" t="n">
-        <v>139.5248378608505</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>112.5782902340832</v>
       </c>
       <c r="H45" t="n">
-        <v>125.6745619188949</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>107.1460820356304</v>
@@ -30827,7 +30827,7 @@
         <v>191.4735447740309</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>214.9454809665884</v>
       </c>
       <c r="U45" t="n">
         <v>237.2276542198663</v>
@@ -30842,7 +30842,7 @@
         <v>217.3129144394706</v>
       </c>
       <c r="Y45" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -30855,10 +30855,10 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C46" t="n">
-        <v>166.4571809719723</v>
+        <v>230.2870756087787</v>
       </c>
       <c r="D46" t="n">
-        <v>174.8955627095222</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E46" t="n">
         <v>141.676141212225</v>
@@ -30870,7 +30870,7 @@
         <v>168.6954829817093</v>
       </c>
       <c r="H46" t="n">
-        <v>240.5549466909088</v>
+        <v>165.7773474488177</v>
       </c>
       <c r="I46" t="n">
         <v>164.6938248359117</v>
@@ -30903,10 +30903,10 @@
         <v>203.1920160450731</v>
       </c>
       <c r="S46" t="n">
-        <v>235.3458201896853</v>
+        <v>240.5549466909088</v>
       </c>
       <c r="T46" t="n">
-        <v>223.7389474107024</v>
+        <v>240.5549466909088</v>
       </c>
       <c r="U46" t="n">
         <v>240.5549466909088</v>
@@ -30918,7 +30918,7 @@
         <v>240.5549466909088</v>
       </c>
       <c r="X46" t="n">
-        <v>221.9194554082425</v>
+        <v>240.5549466909088</v>
       </c>
       <c r="Y46" t="n">
         <v>217.1412728141684</v>
@@ -35413,7 +35413,7 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>88.1086642051694</v>
+        <v>49.05450173165863</v>
       </c>
       <c r="M11" t="n">
         <v>83.75022101202046</v>
@@ -35422,16 +35422,16 @@
         <v>78.19383561383766</v>
       </c>
       <c r="O11" t="n">
-        <v>36.55404110068633</v>
+        <v>98.93990648501784</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>81.82358911834415</v>
       </c>
       <c r="Q11" t="n">
-        <v>98.93990648501779</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>6.215385544146827</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,19 +35492,19 @@
         <v>39.36607756419613</v>
       </c>
       <c r="L12" t="n">
-        <v>98.93990648501779</v>
+        <v>98.93990648501784</v>
       </c>
       <c r="M12" t="n">
-        <v>55.57625694162905</v>
+        <v>98.93990648501784</v>
       </c>
       <c r="N12" t="n">
-        <v>98.93990648501779</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>98.93990648501779</v>
+        <v>98.93990648501784</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>55.57625694162908</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35562,28 +35562,28 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>32.29633500510172</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>32.29633500510167</v>
       </c>
       <c r="L13" t="n">
-        <v>98.93990648501779</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>98.93990648501779</v>
+        <v>98.93990648501784</v>
       </c>
       <c r="O13" t="n">
-        <v>98.93990648501779</v>
+        <v>98.93990648501784</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>98.93990648501784</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35644,10 +35644,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>98.93990648501779</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>24.52347714647751</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>49.05450173165863</v>
@@ -35656,16 +35656,16 @@
         <v>83.75022101202046</v>
       </c>
       <c r="N14" t="n">
-        <v>98.93990648501779</v>
+        <v>78.19383561383766</v>
       </c>
       <c r="O14" t="n">
-        <v>36.55404110068633</v>
+        <v>98.93990648501784</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>81.82358911834415</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35726,22 +35726,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>39.36607756419613</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>98.93990648501784</v>
       </c>
       <c r="M15" t="n">
-        <v>68.84099665492504</v>
+        <v>98.93990648501784</v>
       </c>
       <c r="N15" t="n">
-        <v>98.93990648501779</v>
+        <v>98.93990648501784</v>
       </c>
       <c r="O15" t="n">
-        <v>98.93990648501779</v>
+        <v>94.94233450582519</v>
       </c>
       <c r="P15" t="n">
-        <v>85.67516677172176</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35778,7 +35778,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>22.73893652031387</v>
+        <v>22.73893652031376</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -35790,10 +35790,10 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>3.254931276669927</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>31.66037420357262</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -35805,25 +35805,25 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>98.93990648501779</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>98.93990648501779</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>98.93990648501784</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>98.93990648501784</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>34.91530548024358</v>
       </c>
       <c r="Q16" t="n">
-        <v>73.58199948956229</v>
+        <v>73.58199948956218</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35896,7 +35896,7 @@
         <v>78.19383561383766</v>
       </c>
       <c r="O17" t="n">
-        <v>98.93990648501779</v>
+        <v>36.55404110068633</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -35908,16 +35908,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>64.51217533132507</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>72.85649586226268</v>
+        <v>79.69727917135057</v>
       </c>
       <c r="V17" t="n">
-        <v>8.967093256081284</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -35963,16 +35963,16 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>9.267167734103381</v>
+        <v>39.36607756419613</v>
       </c>
       <c r="L18" t="n">
-        <v>98.93990648501779</v>
+        <v>98.93990648501784</v>
       </c>
       <c r="M18" t="n">
-        <v>98.93990648501779</v>
+        <v>68.84099665492518</v>
       </c>
       <c r="N18" t="n">
-        <v>98.93990648501779</v>
+        <v>98.93990648501784</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -36145,16 +36145,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>98.93990648501779</v>
+        <v>98.93990648501784</v>
       </c>
       <c r="T20" t="n">
-        <v>36.30245476157646</v>
+        <v>36.30245476157651</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>8.967093256081171</v>
+        <v>8.967093256081284</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -36203,19 +36203,19 @@
         <v>39.36607756419613</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>98.93990648501784</v>
       </c>
       <c r="M21" t="n">
-        <v>98.93990648501779</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>98.93990648501779</v>
+        <v>98.93990648501784</v>
       </c>
       <c r="O21" t="n">
-        <v>98.93990648501779</v>
+        <v>68.84099665492518</v>
       </c>
       <c r="P21" t="n">
-        <v>55.57625694162903</v>
+        <v>85.67516677172176</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36355,7 +36355,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>45.26954801765783</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -36382,16 +36382,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>55.5450820752447</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>98.93990648501786</v>
       </c>
       <c r="U23" t="n">
-        <v>79.69727917135046</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>8.967093256081171</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -36440,19 +36440,19 @@
         <v>39.36607756419613</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>98.93990648501786</v>
       </c>
       <c r="M24" t="n">
-        <v>98.93990648501801</v>
+        <v>98.93990648501786</v>
       </c>
       <c r="N24" t="n">
-        <v>98.93990648501801</v>
+        <v>98.93990648501786</v>
       </c>
       <c r="O24" t="n">
-        <v>68.84099665492549</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>85.67516677172176</v>
+        <v>55.57625694162908</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>137.0803921385444</v>
+        <v>137.0803921385443</v>
       </c>
       <c r="K26" t="n">
-        <v>207.6342064794346</v>
+        <v>207.6342064794345</v>
       </c>
       <c r="L26" t="n">
-        <v>261.9152160772722</v>
+        <v>261.9152160772721</v>
       </c>
       <c r="M26" t="n">
-        <v>296.610935357634</v>
+        <v>296.6109353576339</v>
       </c>
       <c r="N26" t="n">
-        <v>291.0545499594513</v>
+        <v>291.0545499594502</v>
       </c>
       <c r="O26" t="n">
-        <v>249.4147554462999</v>
+        <v>249.4147554462998</v>
       </c>
       <c r="P26" t="n">
-        <v>199.4652350250911</v>
+        <v>199.465235025091</v>
       </c>
       <c r="Q26" t="n">
         <v>124.422972921961</v>
       </c>
       <c r="R26" t="n">
-        <v>18.72024270447854</v>
+        <v>18.72024270447845</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36726,7 +36726,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>35.2437936806455</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -36744,13 +36744,13 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>47.08336689679591</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>39.76064624178417</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -36762,10 +36762,10 @@
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>197.1503689549155</v>
       </c>
       <c r="O28" t="n">
-        <v>154.5838546192576</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
@@ -36853,7 +36853,7 @@
         <v>124.422972921961</v>
       </c>
       <c r="R29" t="n">
-        <v>18.72024270447845</v>
+        <v>18.72024270447847</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36984,7 +36984,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>48.1668895097018</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -36993,16 +36993,16 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>181.4956660590429</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>7.24845962795497</v>
+        <v>60.78119241477429</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>176.1298227819254</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
@@ -37069,7 +37069,7 @@
         <v>137.0803921385443</v>
       </c>
       <c r="K32" t="n">
-        <v>207.6342064794345</v>
+        <v>207.6342064794347</v>
       </c>
       <c r="L32" t="n">
         <v>261.9152160772721</v>
@@ -37087,10 +37087,10 @@
         <v>199.465235025091</v>
       </c>
       <c r="Q32" t="n">
-        <v>124.422972921961</v>
+        <v>124.4229729219609</v>
       </c>
       <c r="R32" t="n">
-        <v>18.72024270447847</v>
+        <v>18.72024270447842</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37203,7 +37203,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>46.40353337364112</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -37212,28 +37212,28 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>73.93383212716682</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>47.08336689679582</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>48.1668895097018</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>141.6607587902021</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>116.5736496958919</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
@@ -37303,37 +37303,37 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>164.7746244838397</v>
+        <v>164.7746244838398</v>
       </c>
       <c r="K35" t="n">
-        <v>235.3284388247299</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>289.6094484225675</v>
       </c>
       <c r="M35" t="n">
-        <v>324.3051677029293</v>
+        <v>324.3051677029294</v>
       </c>
       <c r="N35" t="n">
-        <v>103.4297849236261</v>
+        <v>78.19383561383766</v>
       </c>
       <c r="O35" t="n">
-        <v>277.1089877915953</v>
+        <v>80.5347321463218</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>227.1594673703864</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>152.1172052672564</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>46.41447504977388</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>13.30678731250285</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>18.14070877987232</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -37446,10 +37446,10 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>98.87880547868394</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>5.611706222218415</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>104.4905117009024</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -37540,19 +37540,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>164.7746244838397</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>235.3284388247299</v>
       </c>
       <c r="L38" t="n">
-        <v>257.8098172611339</v>
+        <v>144.6761756932474</v>
       </c>
       <c r="M38" t="n">
-        <v>324.3051677029294</v>
+        <v>324.3051677029293</v>
       </c>
       <c r="N38" t="n">
-        <v>318.7487823047466</v>
+        <v>78.19383561383766</v>
       </c>
       <c r="O38" t="n">
         <v>36.55404110068633</v>
@@ -37564,13 +37564,13 @@
         <v>152.1172052672564</v>
       </c>
       <c r="R38" t="n">
-        <v>46.41447504977388</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>13.30678731250285</v>
+        <v>13.30678731250282</v>
       </c>
       <c r="T38" t="n">
-        <v>18.14070877987232</v>
+        <v>18.14070877987229</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -37674,7 +37674,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>62.93802602594084</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -37683,7 +37683,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>67.12758105506664</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -37692,7 +37692,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>41.55248567496152</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -37722,7 +37722,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>37.3629306458358</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37780,28 +37780,28 @@
         <v>164.7746244838397</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>235.3284388247299</v>
       </c>
       <c r="L41" t="n">
-        <v>289.6094484225675</v>
+        <v>49.05450173165863</v>
       </c>
       <c r="M41" t="n">
         <v>324.3051677029293</v>
       </c>
       <c r="N41" t="n">
-        <v>108.7790473389514</v>
+        <v>318.7487823047465</v>
       </c>
       <c r="O41" t="n">
-        <v>277.1089877915952</v>
+        <v>36.55404110068633</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>82.22619464106629</v>
       </c>
       <c r="Q41" t="n">
         <v>152.1172052672563</v>
       </c>
       <c r="R41" t="n">
-        <v>46.4144750497738</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>13.30678731250277</v>
@@ -37914,13 +37914,13 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>74.0977657189365</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>6.979072105225683</v>
       </c>
       <c r="E43" t="n">
-        <v>61.91845455384336</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -37959,10 +37959,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>37.36293064583574</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>5.209126501223524</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -37980,7 +37980,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>23.41367387674043</v>
       </c>
     </row>
     <row r="44">
@@ -38017,13 +38017,13 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>235.3284388247299</v>
       </c>
       <c r="L44" t="n">
-        <v>289.6094484225675</v>
+        <v>49.05450173165863</v>
       </c>
       <c r="M44" t="n">
-        <v>83.75022101202046</v>
+        <v>324.3051677029293</v>
       </c>
       <c r="N44" t="n">
         <v>318.7487823047465</v>
@@ -38032,16 +38032,16 @@
         <v>277.1089877915952</v>
       </c>
       <c r="P44" t="n">
-        <v>227.1594673703864</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>120.3175741058242</v>
+        <v>152.1172052672563</v>
       </c>
       <c r="R44" t="n">
-        <v>46.4144750497738</v>
+        <v>19.75265974650079</v>
       </c>
       <c r="S44" t="n">
-        <v>13.30678731250277</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>18.14070877987223</v>
@@ -38151,10 +38151,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>63.82989463680629</v>
       </c>
       <c r="D46" t="n">
-        <v>29.71291245881146</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -38166,7 +38166,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>74.77759924209117</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -38199,10 +38199,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>5.209126501223524</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>16.81599928020648</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -38214,7 +38214,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>18.63549128266632</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
